--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1814">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7664,31 +7664,147 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩充值替换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>998元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"15万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"98万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"198万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"498万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"998万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2498万金币","火鸡掉落物",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","fish_coin","prop_gej_xy",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,400000,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,300000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,200000,3,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,100000,3,</t>
+    <t>"jing_bi","prop_gej_hj",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>150000,45,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,90,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,150,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>980000,294,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1980000,594,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4980000,1494,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9980000,2994,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24980000,7494,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7768,7 +7884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7859,6 +7975,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7902,7 +8024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8117,6 +8239,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8582,8 +8707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10556,13 +10681,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H463" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AH468" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y476" sqref="Y476"/>
+      <selection pane="bottomRight" activeCell="AP485" sqref="AP485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -39969,7 +40094,7 @@
         <v>1734</v>
       </c>
       <c r="V463" s="5" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="W463" s="64">
         <v>9999999</v>
@@ -40820,10 +40945,10 @@
         <v>1774</v>
       </c>
       <c r="Q476" s="71" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="V476" s="70" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W476" s="70">
         <v>9999999</v>
@@ -40885,10 +41010,10 @@
         <v>1774</v>
       </c>
       <c r="Q477" s="71" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="V477" s="70" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="W477" s="70">
         <v>9999999</v>
@@ -40929,7 +41054,7 @@
         <v>1767</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="K478" s="70">
         <v>-31</v>
@@ -40950,7 +41075,7 @@
         <v>1775</v>
       </c>
       <c r="Q478" s="71" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="V478" s="70" t="s">
         <v>551</v>
@@ -40994,7 +41119,7 @@
         <v>1768</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="K479" s="70">
         <v>-31</v>
@@ -41006,19 +41131,19 @@
         <v>0</v>
       </c>
       <c r="N479" s="70" t="s">
-        <v>1771</v>
+        <v>497</v>
       </c>
       <c r="O479" s="70">
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1776</v>
+        <v>1802</v>
       </c>
       <c r="Q479" s="71" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>551</v>
+        <v>1812</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41041,6 +41166,529 @@
       <c r="AL479" s="70">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="72">
+        <v>479</v>
+      </c>
+      <c r="B480" s="72">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="72">
+        <v>1</v>
+      </c>
+      <c r="G480" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H480" s="72" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I480" s="72" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K480" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="72">
+        <v>0</v>
+      </c>
+      <c r="M480" s="72">
+        <v>0</v>
+      </c>
+      <c r="N480" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O480" s="72">
+        <v>1500</v>
+      </c>
+      <c r="P480" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q480" s="72" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V480" s="72" t="s">
+        <v>1813</v>
+      </c>
+      <c r="W480" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y480" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG480" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="72">
+        <v>480</v>
+      </c>
+      <c r="B481" s="72">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="72">
+        <v>1</v>
+      </c>
+      <c r="G481" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H481" s="72" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I481" s="72" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K481" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="72">
+        <v>0</v>
+      </c>
+      <c r="M481" s="72">
+        <v>0</v>
+      </c>
+      <c r="N481" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O481" s="72">
+        <v>3000</v>
+      </c>
+      <c r="P481" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q481" s="72" t="s">
+        <v>1805</v>
+      </c>
+      <c r="V481" s="72" t="s">
+        <v>1813</v>
+      </c>
+      <c r="W481" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y481" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG481" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="72">
+        <v>481</v>
+      </c>
+      <c r="B482" s="72">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="72">
+        <v>1</v>
+      </c>
+      <c r="G482" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H482" s="72" t="s">
+        <v>1787</v>
+      </c>
+      <c r="I482" s="72" t="s">
+        <v>1795</v>
+      </c>
+      <c r="K482" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="72">
+        <v>0</v>
+      </c>
+      <c r="M482" s="72">
+        <v>0</v>
+      </c>
+      <c r="N482" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O482" s="72">
+        <v>5000</v>
+      </c>
+      <c r="P482" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q482" s="72" t="s">
+        <v>1806</v>
+      </c>
+      <c r="V482" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W482" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y482" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG482" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="72">
+        <v>482</v>
+      </c>
+      <c r="B483" s="72">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="72">
+        <v>1</v>
+      </c>
+      <c r="G483" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H483" s="72" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I483" s="72" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K483" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="72">
+        <v>0</v>
+      </c>
+      <c r="M483" s="72">
+        <v>0</v>
+      </c>
+      <c r="N483" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O483" s="72">
+        <v>9800</v>
+      </c>
+      <c r="P483" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q483" s="72" t="s">
+        <v>1807</v>
+      </c>
+      <c r="V483" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W483" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y483" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG483" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="72">
+        <v>483</v>
+      </c>
+      <c r="B484" s="72">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="72">
+        <v>1</v>
+      </c>
+      <c r="G484" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H484" s="72" t="s">
+        <v>1789</v>
+      </c>
+      <c r="I484" s="72" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K484" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="72">
+        <v>0</v>
+      </c>
+      <c r="M484" s="72">
+        <v>0</v>
+      </c>
+      <c r="N484" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O484" s="72">
+        <v>19800</v>
+      </c>
+      <c r="P484" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q484" s="72" t="s">
+        <v>1808</v>
+      </c>
+      <c r="V484" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W484" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y484" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG484" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="72">
+        <v>484</v>
+      </c>
+      <c r="B485" s="72">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="72">
+        <v>1</v>
+      </c>
+      <c r="G485" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H485" s="72" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I485" s="72" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K485" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="72">
+        <v>0</v>
+      </c>
+      <c r="M485" s="72">
+        <v>0</v>
+      </c>
+      <c r="N485" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O485" s="72">
+        <v>49800</v>
+      </c>
+      <c r="P485" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q485" s="72" t="s">
+        <v>1809</v>
+      </c>
+      <c r="V485" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W485" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y485" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG485" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="72">
+        <v>485</v>
+      </c>
+      <c r="B486" s="72">
+        <v>10402</v>
+      </c>
+      <c r="F486" s="72">
+        <v>1</v>
+      </c>
+      <c r="G486" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H486" s="72" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I486" s="72" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K486" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L486" s="72">
+        <v>0</v>
+      </c>
+      <c r="M486" s="72">
+        <v>0</v>
+      </c>
+      <c r="N486" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O486" s="72">
+        <v>99800</v>
+      </c>
+      <c r="P486" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q486" s="72" t="s">
+        <v>1810</v>
+      </c>
+      <c r="V486" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W486" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X486" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y486" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG486" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH486" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK486" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL486" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="72">
+        <v>486</v>
+      </c>
+      <c r="B487" s="72">
+        <v>10403</v>
+      </c>
+      <c r="F487" s="72">
+        <v>1</v>
+      </c>
+      <c r="G487" s="72" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H487" s="72" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I487" s="72" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K487" s="72">
+        <v>-31</v>
+      </c>
+      <c r="L487" s="72">
+        <v>0</v>
+      </c>
+      <c r="M487" s="72">
+        <v>0</v>
+      </c>
+      <c r="N487" s="72" t="s">
+        <v>1801</v>
+      </c>
+      <c r="O487" s="72">
+        <v>249800</v>
+      </c>
+      <c r="P487" s="72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="Q487" s="72" t="s">
+        <v>1811</v>
+      </c>
+      <c r="V487" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="W487" s="72">
+        <v>9999999</v>
+      </c>
+      <c r="X487" s="72">
+        <v>1606176000</v>
+      </c>
+      <c r="Y487" s="72">
+        <v>1606751999</v>
+      </c>
+      <c r="AG487" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH487" s="72">
+        <v>1</v>
+      </c>
+      <c r="AK487" s="72">
+        <v>1</v>
+      </c>
+      <c r="AL487" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q488" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3987" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1786">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7696,119 +7696,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>感恩充值替换</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>98元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>998元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2498元</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"15万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"98万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"198万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"498万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"998万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2498万金币","火鸡掉落物",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","fish_coin","prop_gej_xy",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_gej_hj",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>150000,45,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,90,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,150,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>980000,294,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1980000,594,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4980000,1494,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9980000,2994,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>24980000,7494,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7884,7 +7772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7975,12 +7863,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8024,7 +7906,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8239,9 +8121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8707,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8933,9 +8812,6 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="52">
-        <v>85</v>
-      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -9016,9 +8892,6 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="52">
-        <v>86</v>
-      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9099,9 +8972,6 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="52">
-        <v>87</v>
-      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9182,9 +9052,6 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="52">
-        <v>88</v>
-      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9265,9 +9132,6 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="52">
-        <v>89</v>
-      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9348,9 +9212,6 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="52">
-        <v>109</v>
-      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9431,9 +9292,6 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="52">
-        <v>10044</v>
-      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9515,9 +9373,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="52">
-        <v>10045</v>
-      </c>
+      <c r="F10" s="52"/>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9601,9 +9457,7 @@
       <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="52">
-        <v>90</v>
-      </c>
+      <c r="F11" s="52"/>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10683,11 +10537,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM488"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AH468" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="U449" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP485" sqref="AP485"/>
+      <selection pane="bottomRight" activeCell="Y476" sqref="Y476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -41137,13 +40991,13 @@
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1802</v>
+        <v>1784</v>
       </c>
       <c r="Q479" s="71" t="s">
         <v>1781</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41167,527 +41021,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A480" s="72">
-        <v>479</v>
-      </c>
-      <c r="B480" s="72">
-        <v>10396</v>
-      </c>
-      <c r="F480" s="72">
-        <v>1</v>
-      </c>
-      <c r="G480" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H480" s="72" t="s">
-        <v>1785</v>
-      </c>
-      <c r="I480" s="72" t="s">
-        <v>1793</v>
-      </c>
-      <c r="K480" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L480" s="72">
-        <v>0</v>
-      </c>
-      <c r="M480" s="72">
-        <v>0</v>
-      </c>
-      <c r="N480" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O480" s="72">
-        <v>1500</v>
-      </c>
-      <c r="P480" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q480" s="72" t="s">
-        <v>1804</v>
-      </c>
-      <c r="V480" s="72" t="s">
-        <v>1813</v>
-      </c>
-      <c r="W480" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X480" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y480" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG480" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH480" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK480" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL480" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A481" s="72">
-        <v>480</v>
-      </c>
-      <c r="B481" s="72">
-        <v>10397</v>
-      </c>
-      <c r="F481" s="72">
-        <v>1</v>
-      </c>
-      <c r="G481" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H481" s="72" t="s">
-        <v>1786</v>
-      </c>
-      <c r="I481" s="72" t="s">
-        <v>1794</v>
-      </c>
-      <c r="K481" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L481" s="72">
-        <v>0</v>
-      </c>
-      <c r="M481" s="72">
-        <v>0</v>
-      </c>
-      <c r="N481" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O481" s="72">
-        <v>3000</v>
-      </c>
-      <c r="P481" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q481" s="72" t="s">
-        <v>1805</v>
-      </c>
-      <c r="V481" s="72" t="s">
-        <v>1813</v>
-      </c>
-      <c r="W481" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X481" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y481" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG481" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH481" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK481" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL481" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="72">
-        <v>481</v>
-      </c>
-      <c r="B482" s="72">
-        <v>10398</v>
-      </c>
-      <c r="F482" s="72">
-        <v>1</v>
-      </c>
-      <c r="G482" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H482" s="72" t="s">
-        <v>1787</v>
-      </c>
-      <c r="I482" s="72" t="s">
-        <v>1795</v>
-      </c>
-      <c r="K482" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L482" s="72">
-        <v>0</v>
-      </c>
-      <c r="M482" s="72">
-        <v>0</v>
-      </c>
-      <c r="N482" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O482" s="72">
-        <v>5000</v>
-      </c>
-      <c r="P482" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q482" s="72" t="s">
-        <v>1806</v>
-      </c>
-      <c r="V482" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W482" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X482" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y482" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG482" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH482" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK482" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL482" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="72">
-        <v>482</v>
-      </c>
-      <c r="B483" s="72">
-        <v>10399</v>
-      </c>
-      <c r="F483" s="72">
-        <v>1</v>
-      </c>
-      <c r="G483" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H483" s="72" t="s">
-        <v>1788</v>
-      </c>
-      <c r="I483" s="72" t="s">
-        <v>1796</v>
-      </c>
-      <c r="K483" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L483" s="72">
-        <v>0</v>
-      </c>
-      <c r="M483" s="72">
-        <v>0</v>
-      </c>
-      <c r="N483" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O483" s="72">
-        <v>9800</v>
-      </c>
-      <c r="P483" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q483" s="72" t="s">
-        <v>1807</v>
-      </c>
-      <c r="V483" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W483" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X483" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y483" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG483" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH483" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK483" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL483" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="72">
-        <v>483</v>
-      </c>
-      <c r="B484" s="72">
-        <v>10400</v>
-      </c>
-      <c r="F484" s="72">
-        <v>1</v>
-      </c>
-      <c r="G484" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H484" s="72" t="s">
-        <v>1789</v>
-      </c>
-      <c r="I484" s="72" t="s">
-        <v>1797</v>
-      </c>
-      <c r="K484" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L484" s="72">
-        <v>0</v>
-      </c>
-      <c r="M484" s="72">
-        <v>0</v>
-      </c>
-      <c r="N484" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O484" s="72">
-        <v>19800</v>
-      </c>
-      <c r="P484" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q484" s="72" t="s">
-        <v>1808</v>
-      </c>
-      <c r="V484" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W484" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X484" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y484" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG484" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH484" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK484" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL484" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="72">
-        <v>484</v>
-      </c>
-      <c r="B485" s="72">
-        <v>10401</v>
-      </c>
-      <c r="F485" s="72">
-        <v>1</v>
-      </c>
-      <c r="G485" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H485" s="72" t="s">
-        <v>1790</v>
-      </c>
-      <c r="I485" s="72" t="s">
-        <v>1798</v>
-      </c>
-      <c r="K485" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L485" s="72">
-        <v>0</v>
-      </c>
-      <c r="M485" s="72">
-        <v>0</v>
-      </c>
-      <c r="N485" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O485" s="72">
-        <v>49800</v>
-      </c>
-      <c r="P485" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q485" s="72" t="s">
-        <v>1809</v>
-      </c>
-      <c r="V485" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W485" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X485" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y485" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG485" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH485" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK485" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL485" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A486" s="72">
-        <v>485</v>
-      </c>
-      <c r="B486" s="72">
-        <v>10402</v>
-      </c>
-      <c r="F486" s="72">
-        <v>1</v>
-      </c>
-      <c r="G486" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H486" s="72" t="s">
-        <v>1791</v>
-      </c>
-      <c r="I486" s="72" t="s">
-        <v>1799</v>
-      </c>
-      <c r="K486" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L486" s="72">
-        <v>0</v>
-      </c>
-      <c r="M486" s="72">
-        <v>0</v>
-      </c>
-      <c r="N486" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O486" s="72">
-        <v>99800</v>
-      </c>
-      <c r="P486" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q486" s="72" t="s">
-        <v>1810</v>
-      </c>
-      <c r="V486" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W486" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X486" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y486" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG486" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH486" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK486" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL486" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:38" s="72" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A487" s="72">
-        <v>486</v>
-      </c>
-      <c r="B487" s="72">
-        <v>10403</v>
-      </c>
-      <c r="F487" s="72">
-        <v>1</v>
-      </c>
-      <c r="G487" s="72" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H487" s="72" t="s">
-        <v>1792</v>
-      </c>
-      <c r="I487" s="72" t="s">
-        <v>1800</v>
-      </c>
-      <c r="K487" s="72">
-        <v>-31</v>
-      </c>
-      <c r="L487" s="72">
-        <v>0</v>
-      </c>
-      <c r="M487" s="72">
-        <v>0</v>
-      </c>
-      <c r="N487" s="72" t="s">
-        <v>1801</v>
-      </c>
-      <c r="O487" s="72">
-        <v>249800</v>
-      </c>
-      <c r="P487" s="72" t="s">
-        <v>1803</v>
-      </c>
-      <c r="Q487" s="72" t="s">
-        <v>1811</v>
-      </c>
-      <c r="V487" s="72" t="s">
-        <v>551</v>
-      </c>
-      <c r="W487" s="72">
-        <v>9999999</v>
-      </c>
-      <c r="X487" s="72">
-        <v>1606176000</v>
-      </c>
-      <c r="Y487" s="72">
-        <v>1606751999</v>
-      </c>
-      <c r="AG487" s="72">
-        <v>1</v>
-      </c>
-      <c r="AH487" s="72">
-        <v>1</v>
-      </c>
-      <c r="AK487" s="72">
-        <v>1</v>
-      </c>
-      <c r="AL487" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>
@@ -41702,8 +41044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD66"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7708,7 +7708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7771,8 +7771,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7863,6 +7869,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7906,7 +7918,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8121,6 +8133,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8406,7 +8445,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -8419,7 +8458,7 @@
     <col min="11" max="11" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8452,7 +8491,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -8482,7 +8521,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="12" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -8512,7 +8551,7 @@
       </c>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -8542,36 +8581,36 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="11"/>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="11"/>
       <c r="C11" s="12"/>
     </row>
@@ -8587,10 +8626,10 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
@@ -8621,7 +8660,7 @@
     <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8722,7 +8761,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8799,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8879,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8959,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9039,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9119,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9199,7 +9238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9279,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9359,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -9441,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -9525,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -9606,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -9687,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -9768,7 +9807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -9849,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -9930,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" s="11" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -10003,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" s="11" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -10076,7 +10115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" s="11" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -10149,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" s="11" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -10222,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" s="11" customFormat="1">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -10295,7 +10334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" s="11" customFormat="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -10368,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" s="11" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -10441,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" s="11" customFormat="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -10455,9 +10494,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="52">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="52"/>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10538,13 +10575,13 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U449" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y476" sqref="Y476"/>
+      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="6"/>
     <col min="2" max="2" width="19.375" style="6" customWidth="1"/>
@@ -10583,7 +10620,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10702,7 +10739,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="5" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10760,7 +10797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10818,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10876,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10945,7 +10982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -10999,7 +11036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11057,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11114,7 +11151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11168,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11222,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11276,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11330,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11387,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11441,7 +11478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11498,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -11555,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="5" customFormat="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -11609,7 +11646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" s="5" customFormat="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -11669,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" s="5" customFormat="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -11729,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" s="5" customFormat="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -11783,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" s="5" customFormat="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -11843,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" s="5" customFormat="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -11903,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" s="5" customFormat="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -11960,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" s="5" customFormat="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -12017,7 +12054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" s="5" customFormat="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -12074,7 +12111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" s="5" customFormat="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -12128,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" s="5" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -12182,7 +12219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" s="5" customFormat="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -12236,7 +12273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="5" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -12290,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="5" customFormat="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -12344,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" s="5" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -12398,7 +12435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" s="5" customFormat="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -12452,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" s="5" customFormat="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -12506,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" s="5" customFormat="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -12560,7 +12597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="5" customFormat="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -12614,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="5" customFormat="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -12668,7 +12705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="5" customFormat="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -12722,7 +12759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="5" customFormat="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -12776,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" s="5" customFormat="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -12830,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" s="5" customFormat="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -12884,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" s="5" customFormat="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -12938,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" s="5" customFormat="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -12992,7 +13029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" s="5" customFormat="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -13046,7 +13083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" s="5" customFormat="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -13100,7 +13137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" s="5" customFormat="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -13154,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" s="5" customFormat="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -13208,7 +13245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" s="5" customFormat="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -13262,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" s="5" customFormat="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -13316,7 +13353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" s="5" customFormat="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -13370,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:34" s="5" customFormat="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -13424,7 +13461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" s="5" customFormat="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -13483,7 +13520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:34" s="5" customFormat="1">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -13542,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:34" s="5" customFormat="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -13601,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:34" s="5" customFormat="1">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -13658,7 +13695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:34" s="5" customFormat="1">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -13712,7 +13749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" s="22" customFormat="1">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -13769,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:34" s="5" customFormat="1">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -13826,7 +13863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:34" s="5" customFormat="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -13880,7 +13917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:34" s="5" customFormat="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -13934,7 +13971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:34" s="5" customFormat="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -13988,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" s="5" customFormat="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -14042,7 +14079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" s="5" customFormat="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -14096,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" s="5" customFormat="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -14150,7 +14187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" s="5" customFormat="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -14204,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" s="5" customFormat="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -14258,7 +14295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" s="5" customFormat="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -14321,287 +14358,287 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+    <row r="67" spans="1:34" s="72" customFormat="1">
+      <c r="A67" s="72">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="72">
         <v>85</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="72">
         <v>2</v>
       </c>
-      <c r="F67" s="5">
-        <v>1</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="72">
+        <v>0</v>
+      </c>
+      <c r="G67" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="72">
         <v>-4</v>
       </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="s">
+      <c r="L67" s="72">
+        <v>0</v>
+      </c>
+      <c r="M67" s="72">
+        <v>0</v>
+      </c>
+      <c r="N67" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O67" s="5">
+      <c r="O67" s="72">
         <v>1500</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q67" s="10" t="s">
+      <c r="Q67" s="73" t="s">
         <v>729</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W67" s="14" t="s">
+      <c r="W67" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X67" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="5">
+      <c r="X67" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG67" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="AG67" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH67" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" s="72" customFormat="1">
+      <c r="A68" s="72">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="72">
         <v>86</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="72">
         <v>3</v>
       </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="5" t="s">
+      <c r="F68" s="72">
+        <v>0</v>
+      </c>
+      <c r="G68" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="72">
         <v>-4</v>
       </c>
-      <c r="L68" s="5">
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="s">
+      <c r="L68" s="72">
+        <v>0</v>
+      </c>
+      <c r="M68" s="72">
+        <v>0</v>
+      </c>
+      <c r="N68" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O68" s="5">
+      <c r="O68" s="72">
         <v>3000</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q68" s="10" t="s">
+      <c r="Q68" s="73" t="s">
         <v>730</v>
       </c>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W68" s="14" t="s">
+      <c r="W68" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X68" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="5">
+      <c r="X68" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG68" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="AG68" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH68" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" s="72" customFormat="1">
+      <c r="A69" s="72">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="72">
         <v>87</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="72">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
-        <v>1</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="72">
+        <v>0</v>
+      </c>
+      <c r="G69" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="72">
         <v>-4</v>
       </c>
-      <c r="L69" s="5">
-        <v>0</v>
-      </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="L69" s="72">
+        <v>0</v>
+      </c>
+      <c r="M69" s="72">
+        <v>0</v>
+      </c>
+      <c r="N69" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O69" s="5">
+      <c r="O69" s="72">
         <v>5000</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q69" s="10" t="s">
+      <c r="Q69" s="73" t="s">
         <v>731</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="V69" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W69" s="14" t="s">
+      <c r="W69" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X69" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="5">
+      <c r="X69" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG69" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="AG69" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH69" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" s="72" customFormat="1">
+      <c r="A70" s="72">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="72">
         <v>88</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="72">
         <v>5</v>
       </c>
-      <c r="F70" s="5">
-        <v>1</v>
-      </c>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="72">
+        <v>0</v>
+      </c>
+      <c r="G70" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="72">
         <v>-4</v>
       </c>
-      <c r="L70" s="5">
-        <v>0</v>
-      </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="5" t="s">
+      <c r="L70" s="72">
+        <v>0</v>
+      </c>
+      <c r="M70" s="72">
+        <v>0</v>
+      </c>
+      <c r="N70" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O70" s="5">
+      <c r="O70" s="72">
         <v>9800</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q70" s="10" t="s">
+      <c r="Q70" s="73" t="s">
         <v>732</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V70" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W70" s="14" t="s">
+      <c r="W70" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X70" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="5">
+      <c r="X70" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG70" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="AG70" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" s="72" customFormat="1">
+      <c r="A71" s="72">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="72">
         <v>89</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="72">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5" t="s">
+      <c r="F71" s="72">
+        <v>0</v>
+      </c>
+      <c r="G71" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="72">
         <v>-4</v>
       </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="5" t="s">
+      <c r="L71" s="72">
+        <v>0</v>
+      </c>
+      <c r="M71" s="72">
+        <v>0</v>
+      </c>
+      <c r="N71" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O71" s="5">
+      <c r="O71" s="72">
         <v>49800</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q71" s="10" t="s">
+      <c r="Q71" s="73" t="s">
         <v>733</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="V71" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W71" s="14" t="s">
+      <c r="W71" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X71" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="5">
+      <c r="X71" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG71" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" s="5" customFormat="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -14664,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" s="5" customFormat="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -14723,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" s="5" customFormat="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -14782,7 +14819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" s="5" customFormat="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -14841,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" s="5" customFormat="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -14900,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" s="19" customFormat="1">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -14956,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" s="19" customFormat="1">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -15021,7 +15058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" s="5" customFormat="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -15086,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" s="5" customFormat="1">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -15154,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" s="19" customFormat="1">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -15216,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" s="5" customFormat="1">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -15272,7 +15309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" s="5" customFormat="1">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -15328,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" s="5" customFormat="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -15384,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" s="5" customFormat="1">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -15440,7 +15477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" s="5" customFormat="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -15491,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" s="5" customFormat="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -15547,7 +15584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" s="5" customFormat="1">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -15603,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" s="5" customFormat="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -15659,7 +15696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" s="5" customFormat="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -15715,7 +15752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" s="5" customFormat="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -15771,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" s="5" customFormat="1" ht="20.25" customHeight="1">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -15827,7 +15864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" s="5" customFormat="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -15883,60 +15920,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+    <row r="94" spans="1:34" s="72" customFormat="1">
+      <c r="A94" s="72">
         <v>93</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="72">
         <v>109</v>
       </c>
-      <c r="F94" s="5">
-        <v>1</v>
-      </c>
-      <c r="G94" s="5" t="s">
+      <c r="F94" s="72">
+        <v>0</v>
+      </c>
+      <c r="G94" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="72">
         <v>-4</v>
       </c>
-      <c r="L94" s="5">
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <v>0</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="L94" s="72">
+        <v>0</v>
+      </c>
+      <c r="M94" s="72">
+        <v>0</v>
+      </c>
+      <c r="N94" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O94" s="5">
+      <c r="O94" s="72">
         <v>100000</v>
       </c>
-      <c r="P94" s="5" t="s">
+      <c r="P94" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q94" s="10" t="s">
+      <c r="Q94" s="73" t="s">
         <v>745</v>
       </c>
-      <c r="V94" s="5" t="s">
+      <c r="V94" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W94" s="14" t="s">
+      <c r="W94" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X94" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="5">
+      <c r="X94" s="72">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG94" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG94" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH94" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" s="5" customFormat="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -15995,7 +16032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" s="5" customFormat="1">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -16051,7 +16088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" s="5" customFormat="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -16113,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" s="5" customFormat="1">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -16175,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" s="5" customFormat="1">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -16237,7 +16274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" s="19" customFormat="1">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -16300,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" s="19" customFormat="1">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -16363,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" s="19" customFormat="1">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -16426,7 +16463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" s="19" customFormat="1">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -16489,7 +16526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" s="19" customFormat="1">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -16552,7 +16589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" s="19" customFormat="1">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -16615,7 +16652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" s="19" customFormat="1">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -16678,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" s="19" customFormat="1">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -16741,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" s="19" customFormat="1">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -16804,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" s="5" customFormat="1">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -16861,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" s="5" customFormat="1">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -16923,7 +16960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" s="5" customFormat="1">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -16985,7 +17022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" s="5" customFormat="1">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -17047,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" s="5" customFormat="1">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -17103,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" s="5" customFormat="1">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -17159,7 +17196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" s="5" customFormat="1">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -17215,7 +17252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" s="5" customFormat="1">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -17277,7 +17314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" s="5" customFormat="1">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -17339,7 +17376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" s="5" customFormat="1">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -17395,7 +17432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" s="5" customFormat="1">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -17451,7 +17488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" s="5" customFormat="1">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -17507,7 +17544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" s="5" customFormat="1">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -17566,7 +17603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" s="5" customFormat="1">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -17625,7 +17662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" s="5" customFormat="1">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -17684,7 +17721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" s="5" customFormat="1">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -17740,7 +17777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" s="5" customFormat="1">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -17796,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" s="5" customFormat="1">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -17852,7 +17889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" s="5" customFormat="1">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -17914,119 +17951,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+    <row r="128" spans="1:34" s="72" customFormat="1">
+      <c r="A128" s="72">
         <v>127</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="72">
         <v>10044</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="72">
         <v>108</v>
       </c>
-      <c r="F128" s="5">
-        <v>1</v>
-      </c>
-      <c r="G128" s="5" t="s">
+      <c r="F128" s="72">
+        <v>0</v>
+      </c>
+      <c r="G128" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128" s="72">
         <v>-10</v>
       </c>
-      <c r="L128" s="5">
-        <v>0</v>
-      </c>
-      <c r="M128" s="5">
-        <v>0</v>
-      </c>
-      <c r="N128" s="5" t="s">
+      <c r="L128" s="72">
+        <v>0</v>
+      </c>
+      <c r="M128" s="72">
+        <v>0</v>
+      </c>
+      <c r="N128" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O128" s="5">
+      <c r="O128" s="72">
         <v>99800</v>
       </c>
-      <c r="P128" s="5" t="s">
+      <c r="P128" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q128" s="10" t="s">
+      <c r="Q128" s="73" t="s">
         <v>754</v>
       </c>
-      <c r="V128" s="5" t="s">
+      <c r="V128" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W128" s="14" t="s">
+      <c r="W128" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X128" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="5">
+      <c r="X128" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG128" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="AG128" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:38" s="72" customFormat="1">
+      <c r="A129" s="72">
         <v>128</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="72">
         <v>10045</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="72">
         <v>110</v>
       </c>
-      <c r="F129" s="5">
-        <v>1</v>
-      </c>
-      <c r="G129" s="5" t="s">
+      <c r="F129" s="72">
+        <v>0</v>
+      </c>
+      <c r="G129" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129" s="72">
         <v>-11</v>
       </c>
-      <c r="L129" s="5">
-        <v>0</v>
-      </c>
-      <c r="M129" s="5">
-        <v>0</v>
-      </c>
-      <c r="N129" s="5" t="s">
+      <c r="L129" s="72">
+        <v>0</v>
+      </c>
+      <c r="M129" s="72">
+        <v>0</v>
+      </c>
+      <c r="N129" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="O129" s="5">
+      <c r="O129" s="72">
         <v>249800</v>
       </c>
-      <c r="P129" s="5" t="s">
+      <c r="P129" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="Q129" s="10" t="s">
+      <c r="Q129" s="73" t="s">
         <v>755</v>
       </c>
-      <c r="V129" s="5" t="s">
+      <c r="V129" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="W129" s="14" t="s">
+      <c r="W129" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="X129" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y129" s="5">
+      <c r="X129" s="75">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="72">
         <v>2552233600</v>
       </c>
-      <c r="AG129" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH129" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG129" s="72">
+        <v>1</v>
+      </c>
+      <c r="AH129" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:38" s="5" customFormat="1">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -18088,7 +18125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:38" s="5" customFormat="1">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -18150,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" s="5" customFormat="1">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -18212,7 +18249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" s="5" customFormat="1">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -18274,7 +18311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:38" s="5" customFormat="1">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -18336,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" s="5" customFormat="1">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -18398,7 +18435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" s="5" customFormat="1">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -18458,7 +18495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" s="5" customFormat="1">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -18518,7 +18555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:38" s="5" customFormat="1">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -18578,7 +18615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" s="5" customFormat="1">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -18638,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" s="5" customFormat="1">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -18698,7 +18735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" s="5" customFormat="1">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -18758,7 +18795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" s="5" customFormat="1">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -18820,7 +18857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" s="5" customFormat="1">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -18882,7 +18919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" s="5" customFormat="1">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -18944,7 +18981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" s="5" customFormat="1">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -19010,7 +19047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" s="5" customFormat="1">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -19076,7 +19113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" s="5" customFormat="1">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -19142,7 +19179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" s="5" customFormat="1">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -19208,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" s="5" customFormat="1">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -19274,7 +19311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:38" s="5" customFormat="1">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -19336,7 +19373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" s="5" customFormat="1">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -19398,7 +19435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" s="5" customFormat="1">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -19460,7 +19497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" s="5" customFormat="1">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -19522,7 +19559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" s="5" customFormat="1">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -19584,7 +19621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" s="5" customFormat="1">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -19646,7 +19683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" s="5" customFormat="1">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -19708,7 +19745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" s="5" customFormat="1">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -19770,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" s="5" customFormat="1">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -19832,7 +19869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" s="5" customFormat="1">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -19894,7 +19931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" s="5" customFormat="1">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -19956,7 +19993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" s="5" customFormat="1">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -20018,7 +20055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" s="5" customFormat="1">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -20080,7 +20117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" s="5" customFormat="1">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -20142,7 +20179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" s="5" customFormat="1">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -20207,7 +20244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" s="5" customFormat="1">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -20269,7 +20306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" s="5" customFormat="1">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -20331,7 +20368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" s="5" customFormat="1">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -20393,7 +20430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" s="19" customFormat="1">
       <c r="A168" s="19">
         <v>167</v>
       </c>
@@ -20458,7 +20495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" s="19" customFormat="1">
       <c r="A169" s="19">
         <v>168</v>
       </c>
@@ -20520,7 +20557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" s="19" customFormat="1">
       <c r="A170" s="19">
         <v>169</v>
       </c>
@@ -20582,7 +20619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" s="19" customFormat="1">
       <c r="A171" s="19">
         <v>170</v>
       </c>
@@ -20650,7 +20687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" s="19" customFormat="1">
       <c r="A172" s="19">
         <v>171</v>
       </c>
@@ -20718,7 +20755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" s="19" customFormat="1">
       <c r="A173" s="19">
         <v>172</v>
       </c>
@@ -20786,7 +20823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" s="19" customFormat="1">
       <c r="A174" s="19">
         <v>173</v>
       </c>
@@ -20854,7 +20891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" s="19" customFormat="1">
       <c r="A175" s="19">
         <v>174</v>
       </c>
@@ -20922,7 +20959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" s="19" customFormat="1">
       <c r="A176" s="19">
         <v>175</v>
       </c>
@@ -20990,7 +21027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:38" s="19" customFormat="1">
       <c r="A177" s="19">
         <v>176</v>
       </c>
@@ -21058,7 +21095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:38" s="19" customFormat="1">
       <c r="A178" s="19">
         <v>177</v>
       </c>
@@ -21126,7 +21163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:38" s="19" customFormat="1">
       <c r="A179" s="19">
         <v>178</v>
       </c>
@@ -21194,7 +21231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:38" s="19" customFormat="1">
       <c r="A180" s="19">
         <v>179</v>
       </c>
@@ -21262,7 +21299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:38" s="19" customFormat="1">
       <c r="A181" s="19">
         <v>180</v>
       </c>
@@ -21330,7 +21367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:38" s="19" customFormat="1">
       <c r="A182" s="19">
         <v>181</v>
       </c>
@@ -21398,7 +21435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:38" s="19" customFormat="1">
       <c r="A183" s="19">
         <v>182</v>
       </c>
@@ -21466,7 +21503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:38" s="19" customFormat="1">
       <c r="A184" s="19">
         <v>183</v>
       </c>
@@ -21534,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:38" s="19" customFormat="1">
       <c r="A185" s="19">
         <v>184</v>
       </c>
@@ -21602,7 +21639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:38" s="5" customFormat="1">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -21664,7 +21701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:38" s="5" customFormat="1">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -21729,7 +21766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:38" s="5" customFormat="1">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -21794,7 +21831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:38" s="5" customFormat="1">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -21859,7 +21896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:38" s="5" customFormat="1">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -21924,7 +21961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:38" s="5" customFormat="1">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -21989,7 +22026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:38" s="5" customFormat="1">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -22054,7 +22091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:38" s="5" customFormat="1">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -22119,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:38" s="5" customFormat="1">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -22184,7 +22221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:38" s="5" customFormat="1">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -22249,7 +22286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:38" s="5" customFormat="1">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -22314,7 +22351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:38" s="5" customFormat="1">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -22379,7 +22416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:38" s="5" customFormat="1">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -22444,7 +22481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:38" s="5" customFormat="1">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -22509,7 +22546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:38" s="5" customFormat="1">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -22574,7 +22611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:38" s="5" customFormat="1">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -22639,7 +22676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:38" s="5" customFormat="1">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -22704,7 +22741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:38" s="5" customFormat="1">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -22769,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:38" s="5" customFormat="1">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -22834,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:38" s="5" customFormat="1">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -22899,7 +22936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:38" s="5" customFormat="1">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -22964,7 +23001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:38" s="5" customFormat="1">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -23029,7 +23066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:38" s="5" customFormat="1">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -23094,7 +23131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:38" s="5" customFormat="1">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -23159,7 +23196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:38" s="5" customFormat="1">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -23224,7 +23261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:38" s="5" customFormat="1">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -23289,7 +23326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:38" s="5" customFormat="1">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -23354,7 +23391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:38" s="5" customFormat="1">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -23419,7 +23456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:38" s="5" customFormat="1">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -23484,7 +23521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:38" s="5" customFormat="1">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -23549,7 +23586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:38" s="5" customFormat="1">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -23614,7 +23651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:38" s="5" customFormat="1">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -23679,7 +23716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:38" s="5" customFormat="1">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -23744,7 +23781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:38" s="5" customFormat="1">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -23809,7 +23846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:38" s="5" customFormat="1">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -23874,7 +23911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:38" s="5" customFormat="1">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -23939,7 +23976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:38" s="5" customFormat="1">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -24004,7 +24041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:38" s="5" customFormat="1">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -24069,7 +24106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:38" s="5" customFormat="1">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -24134,7 +24171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:38" s="5" customFormat="1">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -24199,7 +24236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:38" s="5" customFormat="1">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -24264,7 +24301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:38" s="5" customFormat="1">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -24329,7 +24366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:38" s="5" customFormat="1">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -24394,7 +24431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:38" s="5" customFormat="1">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -24459,7 +24496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:38" s="5" customFormat="1">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -24524,7 +24561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:38" s="5" customFormat="1">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -24589,7 +24626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:38" s="5" customFormat="1">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -24654,7 +24691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:38" s="5" customFormat="1">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -24719,7 +24756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:38" s="5" customFormat="1">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -24784,7 +24821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:38" s="5" customFormat="1">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -24849,7 +24886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:38" s="5" customFormat="1">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -24914,7 +24951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:38" s="5" customFormat="1">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -24979,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:38" s="5" customFormat="1">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -25044,7 +25081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:38" s="5" customFormat="1">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -25109,7 +25146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:38" s="5" customFormat="1">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -25174,7 +25211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:38" s="5" customFormat="1">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -25239,7 +25276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:38" s="5" customFormat="1">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -25304,7 +25341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:38" s="5" customFormat="1">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -25369,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:38" s="5" customFormat="1">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -25434,7 +25471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:38" s="5" customFormat="1">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -25499,7 +25536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:38" s="5" customFormat="1">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -25564,7 +25601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:38" s="5" customFormat="1">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -25630,7 +25667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:38" s="5" customFormat="1">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -25696,7 +25733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:38" s="5" customFormat="1">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -25762,7 +25799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:38" s="19" customFormat="1">
       <c r="A250" s="19">
         <v>249</v>
       </c>
@@ -25825,7 +25862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:38" s="5" customFormat="1">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -25893,7 +25930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:38" s="5" customFormat="1">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -25955,7 +25992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:38" s="5" customFormat="1">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -26017,7 +26054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:38" s="5" customFormat="1">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -26082,7 +26119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:38" s="5" customFormat="1">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -26147,7 +26184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:38" s="5" customFormat="1">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -26212,7 +26249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:38" s="5" customFormat="1">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -26280,7 +26317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:38" s="5" customFormat="1">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -26345,7 +26382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:38" s="5" customFormat="1">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -26410,7 +26447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:38" s="5" customFormat="1">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -26475,7 +26512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:38" s="5" customFormat="1">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -26540,7 +26577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:38" s="5" customFormat="1">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -26605,7 +26642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:38" s="5" customFormat="1">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -26670,7 +26707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:38" s="5" customFormat="1">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -26735,7 +26772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:38" s="5" customFormat="1">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -26800,7 +26837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:38" s="5" customFormat="1">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -26865,7 +26902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:38" s="5" customFormat="1">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -26930,7 +26967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:38" s="5" customFormat="1">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -26995,7 +27032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:38" s="5" customFormat="1">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -27060,7 +27097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:38" s="5" customFormat="1">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -27125,7 +27162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:38" s="5" customFormat="1">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -27190,7 +27227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:38" s="5" customFormat="1">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -27255,63 +27292,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
+    <row r="273" spans="1:39" s="76" customFormat="1" ht="14.25">
+      <c r="A273" s="76">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="76">
         <v>10189</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="77">
         <v>111</v>
       </c>
-      <c r="F273" s="5">
-        <v>1</v>
-      </c>
-      <c r="G273" s="5" t="s">
+      <c r="F273" s="76">
+        <v>0</v>
+      </c>
+      <c r="G273" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="K273" s="5">
+      <c r="K273" s="76">
         <v>-10</v>
       </c>
-      <c r="L273" s="5">
-        <v>0</v>
-      </c>
-      <c r="M273" s="5">
-        <v>0</v>
-      </c>
-      <c r="N273" s="5" t="s">
+      <c r="L273" s="76">
+        <v>0</v>
+      </c>
+      <c r="M273" s="76">
+        <v>0</v>
+      </c>
+      <c r="N273" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="O273" s="5">
+      <c r="O273" s="76">
         <v>19800</v>
       </c>
-      <c r="P273" s="5" t="s">
+      <c r="P273" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="Q273" s="10" t="s">
+      <c r="Q273" s="78" t="s">
         <v>793</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="W273" s="14" t="s">
+      <c r="W273" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="X273" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y273" s="5">
+      <c r="X273" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="76">
         <v>2552233600</v>
       </c>
-      <c r="AG273" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH273" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AG273" s="76">
+        <v>1</v>
+      </c>
+      <c r="AH273" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:39" ht="14.25">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27387,7 +27424,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27452,7 +27489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27517,7 +27554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27582,7 +27619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27647,7 +27684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -27712,7 +27749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -27777,7 +27814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -27842,7 +27879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -27907,7 +27944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -27972,7 +28009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28037,7 +28074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28099,7 +28136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28161,7 +28198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28223,7 +28260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -28285,7 +28322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:38" s="5" customFormat="1">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -28347,7 +28384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:38" s="5" customFormat="1">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -28409,7 +28446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:38" s="5" customFormat="1">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -28471,7 +28508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:38" s="5" customFormat="1">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -28533,7 +28570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:38" s="5" customFormat="1">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -28595,7 +28632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:38" s="5" customFormat="1">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -28657,7 +28694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:38" s="5" customFormat="1">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -28719,7 +28756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:38" s="5" customFormat="1">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -28781,7 +28818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:38" s="5" customFormat="1">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -28843,7 +28880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:38" s="5" customFormat="1">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -28905,7 +28942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:38" s="5" customFormat="1">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -28967,7 +29004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:38" s="5" customFormat="1">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -29029,7 +29066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:38" s="5" customFormat="1">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -29091,7 +29128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:38" s="5" customFormat="1">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -29153,7 +29190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:38" s="5" customFormat="1">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -29215,7 +29252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:38" s="5" customFormat="1">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -29277,7 +29314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:38" s="5" customFormat="1">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -29339,7 +29376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:38" s="5" customFormat="1">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -29401,7 +29438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:38" s="5" customFormat="1">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -29463,7 +29500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:38" s="5" customFormat="1">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -29525,7 +29562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:38" s="5" customFormat="1">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -29587,7 +29624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:38" s="5" customFormat="1">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -29649,7 +29686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:38" s="5" customFormat="1">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -29711,7 +29748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:38" s="5" customFormat="1">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -29773,7 +29810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:38" s="5" customFormat="1">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -29835,7 +29872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:38" s="5" customFormat="1">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -29897,7 +29934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:38" s="5" customFormat="1">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -29959,7 +29996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:38" s="5" customFormat="1">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -30021,7 +30058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:38" s="5" customFormat="1">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -30083,7 +30120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:38" s="5" customFormat="1">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -30145,7 +30182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:38" s="5" customFormat="1">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -30201,7 +30238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:38" s="5" customFormat="1">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -30257,7 +30294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:39" s="5" customFormat="1">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -30319,7 +30356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:39" s="5" customFormat="1">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -30381,7 +30418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:39" s="5" customFormat="1">
       <c r="A323" s="19">
         <v>322</v>
       </c>
@@ -30464,7 +30501,7 @@
       </c>
       <c r="AM323" s="19"/>
     </row>
-    <row r="324" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:39" s="5" customFormat="1">
       <c r="A324" s="19">
         <v>323</v>
       </c>
@@ -30547,7 +30584,7 @@
       </c>
       <c r="AM324" s="19"/>
     </row>
-    <row r="325" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:39" s="5" customFormat="1">
       <c r="A325" s="19">
         <v>324</v>
       </c>
@@ -30630,7 +30667,7 @@
       </c>
       <c r="AM325" s="19"/>
     </row>
-    <row r="326" spans="1:39" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:39" s="40" customFormat="1">
       <c r="A326" s="40">
         <v>325</v>
       </c>
@@ -30690,7 +30727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:39" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:39" s="43" customFormat="1">
       <c r="A327" s="43">
         <v>326</v>
       </c>
@@ -30752,7 +30789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:39">
       <c r="A328" s="43">
         <v>327</v>
       </c>
@@ -30834,7 +30871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:39">
       <c r="A329" s="43">
         <v>328</v>
       </c>
@@ -30916,7 +30953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:39">
       <c r="A330" s="43">
         <v>329</v>
       </c>
@@ -30998,7 +31035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:39">
       <c r="A331" s="43">
         <v>330</v>
       </c>
@@ -31080,7 +31117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:39">
       <c r="A332" s="43">
         <v>331</v>
       </c>
@@ -31162,7 +31199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:39">
       <c r="A333" s="43">
         <v>332</v>
       </c>
@@ -31244,7 +31281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:39">
       <c r="A334" s="43">
         <v>333</v>
       </c>
@@ -31326,7 +31363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:39">
       <c r="A335" s="43">
         <v>334</v>
       </c>
@@ -31408,7 +31445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:39">
       <c r="A336" s="43">
         <v>335</v>
       </c>
@@ -31490,7 +31527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:38">
       <c r="A337" s="43">
         <v>336</v>
       </c>
@@ -31572,7 +31609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:38" s="19" customFormat="1">
       <c r="A338" s="19">
         <v>337</v>
       </c>
@@ -31640,7 +31677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:38">
       <c r="A339" s="19">
         <v>338</v>
       </c>
@@ -31724,7 +31761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:38">
       <c r="A340" s="19">
         <v>339</v>
       </c>
@@ -31808,7 +31845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:38" s="5" customFormat="1">
       <c r="A341" s="5">
         <v>340</v>
       </c>
@@ -31880,7 +31917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:38">
       <c r="A342" s="6">
         <v>341</v>
       </c>
@@ -31951,7 +31988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:38">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -32022,7 +32059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:38">
       <c r="A344" s="6">
         <v>343</v>
       </c>
@@ -32093,7 +32130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:38">
       <c r="A345" s="6">
         <v>344</v>
       </c>
@@ -32164,7 +32201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:38">
       <c r="A346" s="6">
         <v>345</v>
       </c>
@@ -32235,7 +32272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:38">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -32306,7 +32343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:38">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -32377,7 +32414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:38">
       <c r="A349" s="6">
         <v>348</v>
       </c>
@@ -32448,7 +32485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:38">
       <c r="A350" s="6">
         <v>349</v>
       </c>
@@ -32519,7 +32556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:38">
       <c r="A351" s="6">
         <v>350</v>
       </c>
@@ -32590,7 +32627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:38">
       <c r="A352" s="6">
         <v>351</v>
       </c>
@@ -32661,7 +32698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:38" s="5" customFormat="1">
       <c r="A353" s="5">
         <v>352</v>
       </c>
@@ -32729,7 +32766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:38" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:38" s="5" customFormat="1" ht="12" customHeight="1">
       <c r="A354" s="5">
         <v>353</v>
       </c>
@@ -32797,7 +32834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:38" s="5" customFormat="1">
       <c r="A355" s="5">
         <v>354</v>
       </c>
@@ -32865,7 +32902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:38" s="5" customFormat="1">
       <c r="A356" s="5">
         <v>355</v>
       </c>
@@ -32933,7 +32970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:38" s="5" customFormat="1">
       <c r="A357" s="5">
         <v>356</v>
       </c>
@@ -33001,7 +33038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:38" s="5" customFormat="1">
       <c r="A358" s="5">
         <v>357</v>
       </c>
@@ -33069,7 +33106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:38" s="5" customFormat="1">
       <c r="A359" s="5">
         <v>358</v>
       </c>
@@ -33137,7 +33174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:38" s="5" customFormat="1">
       <c r="A360" s="5">
         <v>359</v>
       </c>
@@ -33205,7 +33242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:38" s="5" customFormat="1">
       <c r="A361" s="5">
         <v>360</v>
       </c>
@@ -33273,7 +33310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:38" s="5" customFormat="1">
       <c r="A362" s="5">
         <v>361</v>
       </c>
@@ -33347,7 +33384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:38" s="5" customFormat="1">
       <c r="A363" s="5">
         <v>362</v>
       </c>
@@ -33421,7 +33458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:38" s="5" customFormat="1">
       <c r="A364" s="5">
         <v>363</v>
       </c>
@@ -33495,7 +33532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:38" s="5" customFormat="1">
       <c r="A365" s="5">
         <v>364</v>
       </c>
@@ -33560,7 +33597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:38" s="5" customFormat="1">
       <c r="A366" s="5">
         <v>365</v>
       </c>
@@ -33625,7 +33662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:38" s="5" customFormat="1">
       <c r="A367" s="5">
         <v>366</v>
       </c>
@@ -33690,7 +33727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:38" s="5" customFormat="1">
       <c r="A368" s="5">
         <v>367</v>
       </c>
@@ -33755,7 +33792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:38" s="5" customFormat="1">
       <c r="A369" s="5">
         <v>368</v>
       </c>
@@ -33820,7 +33857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:38" s="5" customFormat="1">
       <c r="A370" s="5">
         <v>369</v>
       </c>
@@ -33882,7 +33919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:38" s="5" customFormat="1">
       <c r="A371" s="5">
         <v>370</v>
       </c>
@@ -33944,7 +33981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:38" s="5" customFormat="1">
       <c r="A372" s="5">
         <v>371</v>
       </c>
@@ -34006,7 +34043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:38" s="5" customFormat="1">
       <c r="A373" s="5">
         <v>372</v>
       </c>
@@ -34068,7 +34105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:38" s="5" customFormat="1">
       <c r="A374" s="5">
         <v>373</v>
       </c>
@@ -34136,7 +34173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:38" s="5" customFormat="1">
       <c r="A375" s="5">
         <v>374</v>
       </c>
@@ -34204,7 +34241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:38" s="5" customFormat="1">
       <c r="A376" s="5">
         <v>375</v>
       </c>
@@ -34272,7 +34309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:38" s="5" customFormat="1">
       <c r="A377" s="5">
         <v>376</v>
       </c>
@@ -34340,7 +34377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:38" s="5" customFormat="1">
       <c r="A378" s="5">
         <v>377</v>
       </c>
@@ -34408,7 +34445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:38" s="5" customFormat="1">
       <c r="A379" s="5">
         <v>378</v>
       </c>
@@ -34476,7 +34513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:38" s="5" customFormat="1">
       <c r="A380" s="5">
         <v>379</v>
       </c>
@@ -34544,7 +34581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:38" s="5" customFormat="1">
       <c r="A381" s="5">
         <v>380</v>
       </c>
@@ -34612,7 +34649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:38" s="5" customFormat="1">
       <c r="A382" s="5">
         <v>381</v>
       </c>
@@ -34680,7 +34717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:38" s="5" customFormat="1">
       <c r="A383" s="5">
         <v>382</v>
       </c>
@@ -34748,7 +34785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:38" s="5" customFormat="1">
       <c r="A384" s="5">
         <v>383</v>
       </c>
@@ -34816,7 +34853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -34884,7 +34921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="62" customFormat="1">
       <c r="A386" s="62">
         <v>385</v>
       </c>
@@ -34952,7 +34989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:38" s="62" customFormat="1">
       <c r="A387" s="62">
         <v>386</v>
       </c>
@@ -35020,7 +35057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:38" s="62" customFormat="1">
       <c r="A388" s="62">
         <v>387</v>
       </c>
@@ -35088,7 +35125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:38" s="60" customFormat="1">
       <c r="A389" s="60">
         <v>388</v>
       </c>
@@ -35156,7 +35193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:38" s="60" customFormat="1">
       <c r="A390" s="60">
         <v>389</v>
       </c>
@@ -35224,7 +35261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:38" s="60" customFormat="1">
       <c r="A391" s="60">
         <v>390</v>
       </c>
@@ -35292,7 +35329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:38" s="62" customFormat="1">
       <c r="A392" s="62">
         <v>391</v>
       </c>
@@ -35360,7 +35397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:38" s="62" customFormat="1">
       <c r="A393" s="62">
         <v>392</v>
       </c>
@@ -35428,7 +35465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:38" s="62" customFormat="1">
       <c r="A394" s="62">
         <v>393</v>
       </c>
@@ -35496,7 +35533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:38" s="5" customFormat="1">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35558,7 +35595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" s="5" customFormat="1">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -35620,7 +35657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" s="5" customFormat="1">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -35682,7 +35719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" s="5" customFormat="1">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -35744,7 +35781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" s="5" customFormat="1">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -35806,7 +35843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" s="5" customFormat="1">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -35868,7 +35905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" s="5" customFormat="1">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -35933,7 +35970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" s="5" customFormat="1">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -35998,7 +36035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" s="5" customFormat="1">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36063,7 +36100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" s="5" customFormat="1">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36128,7 +36165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" s="5" customFormat="1">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36193,7 +36230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" s="5" customFormat="1">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36258,7 +36295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" s="5" customFormat="1">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36323,7 +36360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" s="5" customFormat="1">
       <c r="A408" s="5">
         <v>407</v>
       </c>
@@ -36388,7 +36425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:38" s="5" customFormat="1">
       <c r="A409" s="5">
         <v>408</v>
       </c>
@@ -36453,7 +36490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:38" s="5" customFormat="1">
       <c r="A410" s="5">
         <v>409</v>
       </c>
@@ -36518,7 +36555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:38" s="5" customFormat="1">
       <c r="A411" s="5">
         <v>410</v>
       </c>
@@ -36583,7 +36620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:38" s="5" customFormat="1">
       <c r="A412" s="5">
         <v>411</v>
       </c>
@@ -36648,7 +36685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:38" s="5" customFormat="1">
       <c r="A413" s="5">
         <v>412</v>
       </c>
@@ -36713,7 +36750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:38" s="5" customFormat="1">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -36775,7 +36812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -36843,7 +36880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -36911,7 +36948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -36979,7 +37016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37047,7 +37084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37115,7 +37152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37183,7 +37220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37251,7 +37288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -37319,7 +37356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:38">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -37387,7 +37424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:38">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -37455,7 +37492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:38">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37511,7 +37548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:38">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37567,7 +37604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37623,7 +37660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:38">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37679,7 +37716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -37735,7 +37772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -37803,7 +37840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -37871,7 +37908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -37939,7 +37976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" s="19" customFormat="1">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38007,7 +38044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" s="5" customFormat="1">
       <c r="A434" s="5">
         <v>433</v>
       </c>
@@ -38072,7 +38109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:38" s="5" customFormat="1">
       <c r="A435" s="5">
         <v>434</v>
       </c>
@@ -38137,7 +38174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:38" s="5" customFormat="1">
       <c r="A436" s="5">
         <v>435</v>
       </c>
@@ -38202,7 +38239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:38" s="5" customFormat="1">
       <c r="A437" s="5">
         <v>436</v>
       </c>
@@ -38267,7 +38304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:38" s="5" customFormat="1">
       <c r="A438" s="5">
         <v>437</v>
       </c>
@@ -38332,7 +38369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:38" s="5" customFormat="1">
       <c r="A439" s="5">
         <v>438</v>
       </c>
@@ -38397,7 +38434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:38" s="5" customFormat="1">
       <c r="A440" s="5">
         <v>439</v>
       </c>
@@ -38462,7 +38499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:38" s="5" customFormat="1">
       <c r="A441" s="5">
         <v>440</v>
       </c>
@@ -38524,7 +38561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:38" s="5" customFormat="1">
       <c r="A442" s="5">
         <v>441</v>
       </c>
@@ -38586,7 +38623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:38" s="5" customFormat="1">
       <c r="A443" s="5">
         <v>442</v>
       </c>
@@ -38648,7 +38685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:38" s="5" customFormat="1">
       <c r="A444" s="5">
         <v>443</v>
       </c>
@@ -38710,7 +38747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:38" s="5" customFormat="1">
       <c r="A445" s="5">
         <v>444</v>
       </c>
@@ -38772,7 +38809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:38" s="5" customFormat="1">
       <c r="A446" s="5">
         <v>445</v>
       </c>
@@ -38834,7 +38871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:38" s="54" customFormat="1">
       <c r="A447" s="54">
         <v>446</v>
       </c>
@@ -38902,7 +38939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" s="54" customFormat="1">
       <c r="A448" s="54">
         <v>447</v>
       </c>
@@ -38967,7 +39004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:38" s="54" customFormat="1">
       <c r="A449" s="54">
         <v>448</v>
       </c>
@@ -39035,7 +39072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:38" s="64" customFormat="1">
       <c r="A450" s="64">
         <v>449</v>
       </c>
@@ -39103,7 +39140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:38" s="64" customFormat="1">
       <c r="A451" s="64">
         <v>450</v>
       </c>
@@ -39168,7 +39205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:38" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:38" s="64" customFormat="1" ht="14.25" customHeight="1">
       <c r="A452" s="64">
         <v>451</v>
       </c>
@@ -39236,7 +39273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:38" s="54" customFormat="1">
       <c r="A453" s="54">
         <v>452</v>
       </c>
@@ -39304,7 +39341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:38" s="54" customFormat="1">
       <c r="A454" s="54">
         <v>453</v>
       </c>
@@ -39369,7 +39406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:38" s="54" customFormat="1">
       <c r="A455" s="54">
         <v>454</v>
       </c>
@@ -39437,7 +39474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:38" s="64" customFormat="1">
       <c r="A456" s="64">
         <v>455</v>
       </c>
@@ -39505,7 +39542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:38" s="64" customFormat="1">
       <c r="A457" s="64">
         <v>456</v>
       </c>
@@ -39570,7 +39607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:38" s="64" customFormat="1">
       <c r="A458" s="64">
         <v>457</v>
       </c>
@@ -39638,7 +39675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:38" s="54" customFormat="1">
       <c r="A459" s="54">
         <v>458</v>
       </c>
@@ -39706,7 +39743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:38" s="54" customFormat="1">
       <c r="A460" s="54">
         <v>459</v>
       </c>
@@ -39771,7 +39808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:38" s="54" customFormat="1">
       <c r="A461" s="54">
         <v>460</v>
       </c>
@@ -39839,7 +39876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:38" s="64" customFormat="1">
       <c r="A462" s="64">
         <v>461</v>
       </c>
@@ -39907,7 +39944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:38" s="64" customFormat="1">
       <c r="A463" s="64">
         <v>462</v>
       </c>
@@ -39972,7 +40009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:38" s="64" customFormat="1">
       <c r="A464" s="64">
         <v>463</v>
       </c>
@@ -40040,7 +40077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="54" customFormat="1">
       <c r="A465" s="54">
         <v>464</v>
       </c>
@@ -40108,7 +40145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="54" customFormat="1">
       <c r="A466" s="54">
         <v>465</v>
       </c>
@@ -40173,7 +40210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="54" customFormat="1">
       <c r="A467" s="54">
         <v>466</v>
       </c>
@@ -40241,7 +40278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="58" customFormat="1">
       <c r="A468" s="58">
         <v>467</v>
       </c>
@@ -40306,7 +40343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="58" customFormat="1">
       <c r="A469" s="58">
         <v>468</v>
       </c>
@@ -40371,7 +40408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="58" customFormat="1">
       <c r="A470" s="58">
         <v>469</v>
       </c>
@@ -40436,7 +40473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="58" customFormat="1">
       <c r="A471" s="58">
         <v>470</v>
       </c>
@@ -40501,7 +40538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="58" customFormat="1">
       <c r="A472" s="58">
         <v>471</v>
       </c>
@@ -40566,7 +40603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="58" customFormat="1">
       <c r="A473" s="58">
         <v>472</v>
       </c>
@@ -40631,7 +40668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="68" customFormat="1">
       <c r="A474" s="68">
         <v>473</v>
       </c>
@@ -40696,7 +40733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:38" s="68" customFormat="1">
       <c r="A475" s="68">
         <v>474</v>
       </c>
@@ -40761,7 +40798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:38" s="70" customFormat="1">
       <c r="A476" s="70">
         <v>475</v>
       </c>
@@ -40826,7 +40863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="70" customFormat="1">
       <c r="A477" s="70">
         <v>476</v>
       </c>
@@ -40891,7 +40928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="70" customFormat="1">
       <c r="A478" s="70">
         <v>477</v>
       </c>
@@ -40956,7 +40993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="70" customFormat="1">
       <c r="A479" s="70">
         <v>478</v>
       </c>
@@ -41021,15 +41058,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:38" s="5" customFormat="1"/>
+    <row r="481" spans="17:17" s="5" customFormat="1"/>
+    <row r="482" spans="17:17" s="5" customFormat="1"/>
+    <row r="483" spans="17:17" s="5" customFormat="1"/>
+    <row r="484" spans="17:17" s="5" customFormat="1"/>
+    <row r="485" spans="17:17" s="5" customFormat="1"/>
+    <row r="486" spans="17:17" s="5" customFormat="1"/>
+    <row r="487" spans="17:17" s="5" customFormat="1"/>
+    <row r="488" spans="17:17" s="5" customFormat="1">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>
@@ -41048,14 +41085,14 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="68.875" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>400</v>
       </c>
@@ -41072,7 +41109,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="57.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -41089,7 +41126,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="78.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -41103,7 +41140,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -41117,7 +41154,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -41131,7 +41168,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -41145,7 +41182,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -41159,7 +41196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -41173,7 +41210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -41187,7 +41224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -41201,7 +41238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -41215,7 +41252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -41229,7 +41266,7 @@
         <v>604800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -41243,7 +41280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -41257,7 +41294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -41271,7 +41308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -41285,7 +41322,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -41299,7 +41336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -41313,7 +41350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -41327,7 +41364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="12" customFormat="1">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -41341,7 +41378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="12" customFormat="1">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -41355,7 +41392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="12" customFormat="1">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -41369,7 +41406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="12" customFormat="1">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -41383,7 +41420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="12" customFormat="1">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -41397,7 +41434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="12" customFormat="1">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -41411,7 +41448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="12" customFormat="1">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -41425,7 +41462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="12" customFormat="1">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -41440,7 +41477,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="12" customFormat="1">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -41455,7 +41492,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="12" customFormat="1">
       <c r="A29" s="12">
         <v>28</v>
       </c>
@@ -41470,7 +41507,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="12" customFormat="1">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -41485,7 +41522,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="12" customFormat="1">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -41500,7 +41537,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="12" customFormat="1">
       <c r="A32" s="12">
         <v>31</v>
       </c>
@@ -41515,7 +41552,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="12" customFormat="1">
       <c r="A33" s="12">
         <v>32</v>
       </c>
@@ -41530,7 +41567,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="12" customFormat="1">
       <c r="A34" s="12">
         <v>33</v>
       </c>
@@ -41545,7 +41582,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="12" customFormat="1">
       <c r="A35" s="12">
         <v>34</v>
       </c>
@@ -41560,7 +41597,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="12" customFormat="1">
       <c r="A36" s="12">
         <v>35</v>
       </c>
@@ -41575,7 +41612,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="12" customFormat="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -41590,7 +41627,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="12" customFormat="1">
       <c r="A38" s="12">
         <v>37</v>
       </c>
@@ -41605,7 +41642,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="12">
         <v>38</v>
       </c>
@@ -41619,7 +41656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="12">
         <v>39</v>
       </c>
@@ -41633,7 +41670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="12">
         <v>40</v>
       </c>
@@ -41647,7 +41684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -41661,7 +41698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="12" customFormat="1">
       <c r="A43" s="12">
         <v>42</v>
       </c>
@@ -41675,7 +41712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="12" customFormat="1">
       <c r="A44" s="12">
         <v>43</v>
       </c>
@@ -41689,7 +41726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" s="12" customFormat="1">
       <c r="A45" s="66">
         <v>44</v>
       </c>
@@ -41703,7 +41740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="12" customFormat="1">
       <c r="A46" s="66">
         <v>45</v>
       </c>
@@ -41717,7 +41754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="12" customFormat="1">
       <c r="A47" s="66">
         <v>46</v>
       </c>
@@ -41731,7 +41768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="12" customFormat="1">
       <c r="A48" s="12">
         <v>47</v>
       </c>
@@ -41745,7 +41782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" s="12" customFormat="1">
       <c r="A49" s="12">
         <v>48</v>
       </c>
@@ -41759,7 +41796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="12">
         <v>49</v>
       </c>
@@ -41773,7 +41810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="12">
         <v>50</v>
       </c>
@@ -41787,7 +41824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="12">
         <v>51</v>
       </c>
@@ -41801,7 +41838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="56" customFormat="1">
       <c r="A53" s="56">
         <v>52</v>
       </c>
@@ -41815,7 +41852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" s="56" customFormat="1">
       <c r="A54" s="56">
         <v>53</v>
       </c>
@@ -41829,7 +41866,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="56">
         <v>54</v>
       </c>
@@ -41843,7 +41880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="56">
         <v>55</v>
       </c>
@@ -41857,7 +41894,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="56">
         <v>56</v>
       </c>
@@ -41871,7 +41908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="56">
         <v>57</v>
       </c>
@@ -41885,7 +41922,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="56">
         <v>58</v>
       </c>
@@ -41899,7 +41936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="56">
         <v>59</v>
       </c>
@@ -41913,7 +41950,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="56">
         <v>60</v>
       </c>
@@ -41927,7 +41964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="56">
         <v>61</v>
       </c>
@@ -41941,7 +41978,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="56">
         <v>62</v>
       </c>
@@ -41955,7 +41992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="56">
         <v>63</v>
       </c>
@@ -41969,7 +42006,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="56">
         <v>64</v>
       </c>
@@ -41983,7 +42020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="56">
         <v>65</v>
       </c>
@@ -42012,7 +42049,7 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="19.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.375" style="52" customWidth="1"/>
@@ -42039,7 +42076,7 @@
     <col min="30" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>411</v>
       </c>
@@ -42128,7 +42165,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="11" customFormat="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -42191,7 +42228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="11" customFormat="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -42259,7 +42296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="11" customFormat="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -42327,7 +42364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="11" customFormat="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -42395,7 +42432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="11" customFormat="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -42463,7 +42500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="11" customFormat="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -42531,7 +42568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="11" customFormat="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -42594,7 +42631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="11" customFormat="1">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -42657,7 +42694,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="11" customFormat="1">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -42720,7 +42757,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="11" customFormat="1">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -42783,7 +42820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="11" customFormat="1">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -42851,7 +42888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="11" customFormat="1">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -42919,7 +42956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="11" customFormat="1">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -42987,7 +43024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="11" customFormat="1">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -43054,7 +43091,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="11" customFormat="1">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -43122,7 +43159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" s="11" customFormat="1">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -43185,7 +43222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" s="11" customFormat="1">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -43248,7 +43285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" s="11" customFormat="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -43311,7 +43348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" s="11" customFormat="1">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -43374,7 +43411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" s="34" customFormat="1">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -43437,7 +43474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" s="11" customFormat="1">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -43498,7 +43535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" s="11" customFormat="1">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -43559,7 +43596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" s="11" customFormat="1">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -43626,7 +43663,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="11" customFormat="1">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -43694,10 +43731,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" s="11" customFormat="1">
       <c r="D26" s="52"/>
     </row>
-    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" s="11" customFormat="1">
       <c r="D27" s="52"/>
     </row>
   </sheetData>
@@ -43717,7 +43754,7 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
@@ -43738,7 +43775,7 @@
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43812,7 +43849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="12" customFormat="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -43868,7 +43905,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -43927,7 +43964,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="12" customFormat="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -43975,7 +44012,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="12" customFormat="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -44016,7 +44053,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="12" customFormat="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -44057,7 +44094,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="12" customFormat="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -44116,7 +44153,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="12" customFormat="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -44172,7 +44209,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="12" customFormat="1">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -44210,7 +44247,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="12" customFormat="1">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -44248,7 +44285,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="12" customFormat="1">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -44286,7 +44323,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="12" customFormat="1">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -44324,7 +44361,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="12" customFormat="1">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -44371,7 +44408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="12" customFormat="1">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -44418,7 +44455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="12" customFormat="1">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -44465,7 +44502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="25" customFormat="1">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -44501,7 +44538,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="25" customFormat="1">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -44537,7 +44574,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="25" customFormat="1">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -44573,7 +44610,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="25" customFormat="1">
       <c r="A19" s="25">
         <v>18</v>
       </c>
@@ -44609,7 +44646,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="20" customFormat="1">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -44647,7 +44684,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="20" customFormat="1">
       <c r="A21" s="20">
         <v>20</v>
       </c>

--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1785">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5988,10 +5988,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_mfcjq",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7617,6 +7613,90 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","40万鱼币","传说宝箱*15",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","30万鱼币","传说宝箱*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_cs",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_ss",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_gej_xy",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","20万鱼币","史诗宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","10万鱼币","稀有宝箱*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,400000,15,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,200000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7688,7 +7768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7751,12 +7831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7770,6 +7844,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7816,7 +7902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7997,12 +8083,6 @@
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8015,17 +8095,29 @@
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8424,16 +8516,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E4" s="53" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>1538</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>1539</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>1540</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8491,7 +8583,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8563,7 +8655,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -8655,7 +8747,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8738,7 +8830,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8821,7 +8913,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -9320,7 +9412,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9649,7 +9741,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9811,7 +9903,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -10030,7 +10122,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -10176,7 +10268,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -10322,7 +10414,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -10406,7 +10498,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -10464,13 +10556,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM476"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H463" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X386" sqref="X386:Y394"/>
+      <selection pane="bottomRight" activeCell="Y476" sqref="Y476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14843,7 +14935,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14861,10 +14953,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -14899,7 +14991,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -14920,7 +15012,7 @@
         <v>503</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>548</v>
@@ -20954,7 +21046,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>779</v>
@@ -25916,7 +26008,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>837</v>
@@ -29864,7 +29956,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -32879,7 +32971,7 @@
         <v>1294</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33716,7 +33808,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1361</v>
+        <v>1773</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1337</v>
@@ -34032,10 +34124,10 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1357</v>
@@ -34100,7 +34192,7 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="Q375" s="10" t="s">
         <v>1356</v>
@@ -34144,13 +34236,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34162,19 +34254,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34212,13 +34304,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="H377" s="5" t="s">
-        <v>1366</v>
-      </c>
       <c r="I377" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -34230,19 +34322,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>796</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34280,13 +34372,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H378" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1372</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1373</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34304,13 +34396,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="Q378" s="10" t="s">
         <v>1384</v>
       </c>
-      <c r="Q378" s="10" t="s">
-        <v>1385</v>
-      </c>
       <c r="V378" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34348,10 +34440,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>951</v>
@@ -34366,13 +34458,13 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>798</v>
@@ -34416,10 +34508,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>952</v>
@@ -34434,19 +34526,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34484,13 +34576,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H381" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I381" s="5" t="s">
         <v>1376</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>1377</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34508,13 +34600,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -34552,13 +34644,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34570,19 +34662,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34620,10 +34712,10 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>1343</v>
@@ -34638,19 +34730,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -34688,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I384" s="5" t="s">
         <v>1344</v>
@@ -34706,19 +34798,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>802</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -34756,13 +34848,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34774,19 +34866,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>803</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34813,615 +34905,615 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="64">
+    <row r="386" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="62">
         <v>385</v>
       </c>
-      <c r="B386" s="64">
+      <c r="B386" s="62">
         <v>10302</v>
       </c>
-      <c r="F386" s="64">
-        <v>1</v>
-      </c>
-      <c r="G386" s="64" t="s">
+      <c r="F386" s="62">
+        <v>1</v>
+      </c>
+      <c r="G386" s="62" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H386" s="62" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I386" s="62" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K386" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L386" s="62">
+        <v>0</v>
+      </c>
+      <c r="M386" s="62">
+        <v>0</v>
+      </c>
+      <c r="N386" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O386" s="62">
+        <v>1800</v>
+      </c>
+      <c r="P386" s="62" t="s">
+        <v>1402</v>
+      </c>
+      <c r="Q386" s="63" t="s">
+        <v>1411</v>
+      </c>
+      <c r="V386" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W386" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X386" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y386" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z386" s="62">
+        <v>44</v>
+      </c>
+      <c r="AG386" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="62">
+        <v>386</v>
+      </c>
+      <c r="B387" s="62">
+        <v>10303</v>
+      </c>
+      <c r="F387" s="62">
+        <v>1</v>
+      </c>
+      <c r="G387" s="62" t="s">
         <v>1386</v>
       </c>
-      <c r="H386" s="64" t="s">
+      <c r="H387" s="62" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I387" s="62" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K387" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L387" s="62">
+        <v>0</v>
+      </c>
+      <c r="M387" s="62">
+        <v>0</v>
+      </c>
+      <c r="N387" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O387" s="62">
+        <v>3000</v>
+      </c>
+      <c r="P387" s="62" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Q387" s="63" t="s">
+        <v>1412</v>
+      </c>
+      <c r="V387" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W387" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X387" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y387" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z387" s="62">
+        <v>44</v>
+      </c>
+      <c r="AG387" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="62">
+        <v>387</v>
+      </c>
+      <c r="B388" s="62">
+        <v>10304</v>
+      </c>
+      <c r="F388" s="62">
+        <v>1</v>
+      </c>
+      <c r="G388" s="62" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H388" s="62" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I388" s="62" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K388" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L388" s="62">
+        <v>0</v>
+      </c>
+      <c r="M388" s="62">
+        <v>0</v>
+      </c>
+      <c r="N388" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O388" s="62">
+        <v>4800</v>
+      </c>
+      <c r="P388" s="62" t="s">
+        <v>1405</v>
+      </c>
+      <c r="Q388" s="63" t="s">
+        <v>1413</v>
+      </c>
+      <c r="V388" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W388" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X388" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y388" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z388" s="62">
+        <v>44</v>
+      </c>
+      <c r="AG388" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="60">
+        <v>388</v>
+      </c>
+      <c r="B389" s="60">
+        <v>10305</v>
+      </c>
+      <c r="F389" s="60">
+        <v>1</v>
+      </c>
+      <c r="G389" s="60" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H389" s="60" t="s">
         <v>1390</v>
       </c>
-      <c r="I386" s="64" t="s">
-        <v>1393</v>
-      </c>
-      <c r="K386" s="64">
+      <c r="I389" s="60" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K389" s="60">
         <v>-31</v>
       </c>
-      <c r="L386" s="64">
-        <v>0</v>
-      </c>
-      <c r="M386" s="64">
-        <v>0</v>
-      </c>
-      <c r="N386" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O386" s="64">
-        <v>1800</v>
-      </c>
-      <c r="P386" s="64" t="s">
+      <c r="L389" s="60">
+        <v>0</v>
+      </c>
+      <c r="M389" s="60">
+        <v>0</v>
+      </c>
+      <c r="N389" s="60" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O389" s="60">
+        <v>4800</v>
+      </c>
+      <c r="P389" s="60" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q389" s="61" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V389" s="60" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W389" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X389" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y389" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="Z389" s="60">
+        <v>45</v>
+      </c>
+      <c r="AG389" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="60">
+        <v>389</v>
+      </c>
+      <c r="B390" s="60">
+        <v>10306</v>
+      </c>
+      <c r="F390" s="60">
+        <v>1</v>
+      </c>
+      <c r="G390" s="60" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H390" s="60" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I390" s="60" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K390" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L390" s="60">
+        <v>0</v>
+      </c>
+      <c r="M390" s="60">
+        <v>0</v>
+      </c>
+      <c r="N390" s="60" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O390" s="60">
+        <v>9800</v>
+      </c>
+      <c r="P390" s="60" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q390" s="61" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V390" s="60" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W390" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X390" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y390" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="Z390" s="60">
+        <v>45</v>
+      </c>
+      <c r="AG390" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="60">
+        <v>390</v>
+      </c>
+      <c r="B391" s="60">
+        <v>10307</v>
+      </c>
+      <c r="F391" s="60">
+        <v>1</v>
+      </c>
+      <c r="G391" s="60" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H391" s="60" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I391" s="60" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K391" s="60">
+        <v>-31</v>
+      </c>
+      <c r="L391" s="60">
+        <v>0</v>
+      </c>
+      <c r="M391" s="60">
+        <v>0</v>
+      </c>
+      <c r="N391" s="60" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O391" s="60">
+        <v>19800</v>
+      </c>
+      <c r="P391" s="60" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Q391" s="61" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V391" s="60" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W391" s="60">
+        <v>9999999</v>
+      </c>
+      <c r="X391" s="60">
+        <v>1605571200</v>
+      </c>
+      <c r="Y391" s="60">
+        <v>1606147199</v>
+      </c>
+      <c r="Z391" s="60">
+        <v>45</v>
+      </c>
+      <c r="AG391" s="60">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="60">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="60">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="62">
+        <v>391</v>
+      </c>
+      <c r="B392" s="62">
+        <v>10308</v>
+      </c>
+      <c r="F392" s="62">
+        <v>1</v>
+      </c>
+      <c r="G392" s="62" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H392" s="62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I392" s="62" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K392" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L392" s="62">
+        <v>0</v>
+      </c>
+      <c r="M392" s="62">
+        <v>0</v>
+      </c>
+      <c r="N392" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O392" s="62">
+        <v>9800</v>
+      </c>
+      <c r="P392" s="62" t="s">
         <v>1403</v>
       </c>
-      <c r="Q386" s="65" t="s">
-        <v>1412</v>
-      </c>
-      <c r="V386" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W386" s="64">
+      <c r="Q392" s="63" t="s">
+        <v>1417</v>
+      </c>
+      <c r="V392" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W392" s="62">
         <v>9999999</v>
       </c>
-      <c r="X386" s="64">
+      <c r="X392" s="62">
         <v>1605571200</v>
       </c>
-      <c r="Y386" s="64">
+      <c r="Y392" s="62">
         <v>1606147199</v>
       </c>
-      <c r="Z386" s="64">
-        <v>44</v>
-      </c>
-      <c r="AG386" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH386" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK386" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL386" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="64">
-        <v>386</v>
-      </c>
-      <c r="B387" s="64">
-        <v>10303</v>
-      </c>
-      <c r="F387" s="64">
-        <v>1</v>
-      </c>
-      <c r="G387" s="64" t="s">
+      <c r="Z392" s="62">
+        <v>46</v>
+      </c>
+      <c r="AG392" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="62">
+        <v>392</v>
+      </c>
+      <c r="B393" s="62">
+        <v>10309</v>
+      </c>
+      <c r="F393" s="62">
+        <v>1</v>
+      </c>
+      <c r="G393" s="62" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H393" s="62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I393" s="62" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K393" s="62">
+        <v>-31</v>
+      </c>
+      <c r="L393" s="62">
+        <v>0</v>
+      </c>
+      <c r="M393" s="62">
+        <v>0</v>
+      </c>
+      <c r="N393" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O393" s="62">
+        <v>19800</v>
+      </c>
+      <c r="P393" s="62" t="s">
+        <v>1409</v>
+      </c>
+      <c r="Q393" s="63" t="s">
+        <v>1419</v>
+      </c>
+      <c r="V393" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W393" s="62">
+        <v>9999999</v>
+      </c>
+      <c r="X393" s="62">
+        <v>1605571200</v>
+      </c>
+      <c r="Y393" s="62">
+        <v>1606147199</v>
+      </c>
+      <c r="Z393" s="62">
+        <v>46</v>
+      </c>
+      <c r="AG393" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="62">
+        <v>393</v>
+      </c>
+      <c r="B394" s="62">
+        <v>10310</v>
+      </c>
+      <c r="F394" s="62">
+        <v>1</v>
+      </c>
+      <c r="G394" s="62" t="s">
         <v>1387</v>
       </c>
-      <c r="H387" s="64" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I387" s="64" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K387" s="64">
+      <c r="H394" s="62" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I394" s="62" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K394" s="62">
         <v>-31</v>
       </c>
-      <c r="L387" s="64">
-        <v>0</v>
-      </c>
-      <c r="M387" s="64">
-        <v>0</v>
-      </c>
-      <c r="N387" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O387" s="64">
-        <v>3000</v>
-      </c>
-      <c r="P387" s="64" t="s">
-        <v>1405</v>
-      </c>
-      <c r="Q387" s="65" t="s">
-        <v>1413</v>
-      </c>
-      <c r="V387" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W387" s="64">
+      <c r="L394" s="62">
+        <v>0</v>
+      </c>
+      <c r="M394" s="62">
+        <v>0</v>
+      </c>
+      <c r="N394" s="62" t="s">
+        <v>1401</v>
+      </c>
+      <c r="O394" s="62">
+        <v>49800</v>
+      </c>
+      <c r="P394" s="62" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q394" s="63" t="s">
+        <v>1418</v>
+      </c>
+      <c r="V394" s="62" t="s">
+        <v>1421</v>
+      </c>
+      <c r="W394" s="62">
         <v>9999999</v>
       </c>
-      <c r="X387" s="64">
+      <c r="X394" s="62">
         <v>1605571200</v>
       </c>
-      <c r="Y387" s="64">
+      <c r="Y394" s="62">
         <v>1606147199</v>
       </c>
-      <c r="Z387" s="64">
-        <v>44</v>
-      </c>
-      <c r="AG387" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH387" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK387" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL387" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="64">
-        <v>387</v>
-      </c>
-      <c r="B388" s="64">
-        <v>10304</v>
-      </c>
-      <c r="F388" s="64">
-        <v>1</v>
-      </c>
-      <c r="G388" s="64" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H388" s="64" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I388" s="64" t="s">
-        <v>1395</v>
-      </c>
-      <c r="K388" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L388" s="64">
-        <v>0</v>
-      </c>
-      <c r="M388" s="64">
-        <v>0</v>
-      </c>
-      <c r="N388" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O388" s="64">
-        <v>4800</v>
-      </c>
-      <c r="P388" s="64" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Q388" s="65" t="s">
-        <v>1414</v>
-      </c>
-      <c r="V388" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W388" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X388" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y388" s="64">
-        <v>1606147199</v>
-      </c>
-      <c r="Z388" s="64">
-        <v>44</v>
-      </c>
-      <c r="AG388" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH388" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK388" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL388" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="62">
-        <v>388</v>
-      </c>
-      <c r="B389" s="62">
-        <v>10305</v>
-      </c>
-      <c r="F389" s="62">
-        <v>1</v>
-      </c>
-      <c r="G389" s="62" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H389" s="62" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I389" s="62" t="s">
-        <v>1396</v>
-      </c>
-      <c r="K389" s="62">
-        <v>-31</v>
-      </c>
-      <c r="L389" s="62">
-        <v>0</v>
-      </c>
-      <c r="M389" s="62">
-        <v>0</v>
-      </c>
-      <c r="N389" s="62" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O389" s="62">
-        <v>4800</v>
-      </c>
-      <c r="P389" s="62" t="s">
-        <v>1407</v>
-      </c>
-      <c r="Q389" s="63" t="s">
-        <v>1415</v>
-      </c>
-      <c r="V389" s="62" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W389" s="62">
-        <v>9999999</v>
-      </c>
-      <c r="X389" s="62">
-        <v>1605571200</v>
-      </c>
-      <c r="Y389" s="62">
-        <v>1606147199</v>
-      </c>
-      <c r="Z389" s="62">
-        <v>45</v>
-      </c>
-      <c r="AG389" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH389" s="62">
-        <v>1</v>
-      </c>
-      <c r="AK389" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL389" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="62">
-        <v>389</v>
-      </c>
-      <c r="B390" s="62">
-        <v>10306</v>
-      </c>
-      <c r="F390" s="62">
-        <v>1</v>
-      </c>
-      <c r="G390" s="62" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H390" s="62" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I390" s="62" t="s">
-        <v>1397</v>
-      </c>
-      <c r="K390" s="62">
-        <v>-31</v>
-      </c>
-      <c r="L390" s="62">
-        <v>0</v>
-      </c>
-      <c r="M390" s="62">
-        <v>0</v>
-      </c>
-      <c r="N390" s="62" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O390" s="62">
-        <v>9800</v>
-      </c>
-      <c r="P390" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="Q390" s="63" t="s">
-        <v>1416</v>
-      </c>
-      <c r="V390" s="62" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W390" s="62">
-        <v>9999999</v>
-      </c>
-      <c r="X390" s="62">
-        <v>1605571200</v>
-      </c>
-      <c r="Y390" s="62">
-        <v>1606147199</v>
-      </c>
-      <c r="Z390" s="62">
-        <v>45</v>
-      </c>
-      <c r="AG390" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH390" s="62">
-        <v>1</v>
-      </c>
-      <c r="AK390" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL390" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:38" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="62">
-        <v>390</v>
-      </c>
-      <c r="B391" s="62">
-        <v>10307</v>
-      </c>
-      <c r="F391" s="62">
-        <v>1</v>
-      </c>
-      <c r="G391" s="62" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H391" s="62" t="s">
-        <v>1391</v>
-      </c>
-      <c r="I391" s="62" t="s">
-        <v>1398</v>
-      </c>
-      <c r="K391" s="62">
-        <v>-31</v>
-      </c>
-      <c r="L391" s="62">
-        <v>0</v>
-      </c>
-      <c r="M391" s="62">
-        <v>0</v>
-      </c>
-      <c r="N391" s="62" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O391" s="62">
-        <v>19800</v>
-      </c>
-      <c r="P391" s="62" t="s">
-        <v>1409</v>
-      </c>
-      <c r="Q391" s="63" t="s">
-        <v>1417</v>
-      </c>
-      <c r="V391" s="62" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W391" s="62">
-        <v>9999999</v>
-      </c>
-      <c r="X391" s="62">
-        <v>1605571200</v>
-      </c>
-      <c r="Y391" s="62">
-        <v>1606147199</v>
-      </c>
-      <c r="Z391" s="62">
-        <v>45</v>
-      </c>
-      <c r="AG391" s="62">
-        <v>1</v>
-      </c>
-      <c r="AH391" s="62">
-        <v>1</v>
-      </c>
-      <c r="AK391" s="62">
-        <v>1</v>
-      </c>
-      <c r="AL391" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="64">
-        <v>391</v>
-      </c>
-      <c r="B392" s="64">
-        <v>10308</v>
-      </c>
-      <c r="F392" s="64">
-        <v>1</v>
-      </c>
-      <c r="G392" s="64" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H392" s="64" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I392" s="64" t="s">
-        <v>1399</v>
-      </c>
-      <c r="K392" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L392" s="64">
-        <v>0</v>
-      </c>
-      <c r="M392" s="64">
-        <v>0</v>
-      </c>
-      <c r="N392" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O392" s="64">
-        <v>9800</v>
-      </c>
-      <c r="P392" s="64" t="s">
-        <v>1404</v>
-      </c>
-      <c r="Q392" s="65" t="s">
-        <v>1418</v>
-      </c>
-      <c r="V392" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W392" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X392" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y392" s="64">
-        <v>1606147199</v>
-      </c>
-      <c r="Z392" s="64">
+      <c r="Z394" s="62">
         <v>46</v>
       </c>
-      <c r="AG392" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH392" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK392" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL392" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="64">
-        <v>392</v>
-      </c>
-      <c r="B393" s="64">
-        <v>10309</v>
-      </c>
-      <c r="F393" s="64">
-        <v>1</v>
-      </c>
-      <c r="G393" s="64" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H393" s="64" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I393" s="64" t="s">
-        <v>1400</v>
-      </c>
-      <c r="K393" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L393" s="64">
-        <v>0</v>
-      </c>
-      <c r="M393" s="64">
-        <v>0</v>
-      </c>
-      <c r="N393" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O393" s="64">
-        <v>19800</v>
-      </c>
-      <c r="P393" s="64" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Q393" s="65" t="s">
-        <v>1420</v>
-      </c>
-      <c r="V393" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W393" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X393" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y393" s="64">
-        <v>1606147199</v>
-      </c>
-      <c r="Z393" s="64">
-        <v>46</v>
-      </c>
-      <c r="AG393" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH393" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK393" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL393" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="64">
-        <v>393</v>
-      </c>
-      <c r="B394" s="64">
-        <v>10310</v>
-      </c>
-      <c r="F394" s="64">
-        <v>1</v>
-      </c>
-      <c r="G394" s="64" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H394" s="64" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I394" s="64" t="s">
-        <v>1401</v>
-      </c>
-      <c r="K394" s="64">
-        <v>-31</v>
-      </c>
-      <c r="L394" s="64">
-        <v>0</v>
-      </c>
-      <c r="M394" s="64">
-        <v>0</v>
-      </c>
-      <c r="N394" s="64" t="s">
-        <v>1402</v>
-      </c>
-      <c r="O394" s="64">
-        <v>49800</v>
-      </c>
-      <c r="P394" s="64" t="s">
-        <v>1411</v>
-      </c>
-      <c r="Q394" s="65" t="s">
-        <v>1419</v>
-      </c>
-      <c r="V394" s="64" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W394" s="64">
-        <v>9999999</v>
-      </c>
-      <c r="X394" s="64">
-        <v>1605571200</v>
-      </c>
-      <c r="Y394" s="64">
-        <v>1606147199</v>
-      </c>
-      <c r="Z394" s="64">
-        <v>46</v>
-      </c>
-      <c r="AG394" s="64">
-        <v>1</v>
-      </c>
-      <c r="AH394" s="64">
-        <v>1</v>
-      </c>
-      <c r="AK394" s="64">
-        <v>1</v>
-      </c>
-      <c r="AL394" s="64">
+      <c r="AG394" s="62">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="62">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="62">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="62">
         <v>1</v>
       </c>
     </row>
@@ -35436,10 +35528,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35457,10 +35549,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>551</v>
@@ -35498,10 +35590,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35519,10 +35611,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>551</v>
@@ -35563,7 +35655,7 @@
         <v>299</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35581,10 +35673,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>551</v>
@@ -35625,7 +35717,7 @@
         <v>302</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35643,10 +35735,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>551</v>
@@ -35684,10 +35776,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35705,10 +35797,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>551</v>
@@ -35746,10 +35838,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35767,10 +35859,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>551</v>
@@ -35808,10 +35900,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35823,19 +35915,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q401" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="V401" s="5" t="s">
         <v>1445</v>
-      </c>
-      <c r="Q401" s="5" t="s">
-        <v>1470</v>
-      </c>
-      <c r="V401" s="5" t="s">
-        <v>1446</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35873,10 +35965,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35888,19 +35980,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q402" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="V402" s="5" t="s">
         <v>1445</v>
-      </c>
-      <c r="Q402" s="5" t="s">
-        <v>1466</v>
-      </c>
-      <c r="V402" s="5" t="s">
-        <v>1446</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -35938,10 +36030,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -35953,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="V403" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36003,10 +36095,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36018,19 +36110,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36068,10 +36160,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36083,19 +36175,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36133,10 +36225,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36148,19 +36240,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36198,10 +36290,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36213,19 +36305,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36263,10 +36355,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36284,13 +36376,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Q408" s="10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="V408" s="5" t="s">
         <v>1489</v>
-      </c>
-      <c r="Q408" s="10" t="s">
-        <v>1627</v>
-      </c>
-      <c r="V408" s="5" t="s">
-        <v>1490</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -36328,10 +36420,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -36349,13 +36441,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="V409" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -36393,10 +36485,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -36414,13 +36506,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -36458,10 +36550,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -36479,13 +36571,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -36523,10 +36615,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -36544,13 +36636,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -36588,10 +36680,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36609,13 +36701,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="V413" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -36656,7 +36748,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36677,10 +36769,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36715,13 +36807,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36745,7 +36837,7 @@
         <v>1263</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36783,13 +36875,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36810,10 +36902,10 @@
         <v>1271</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36851,13 +36943,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36919,13 +37011,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36946,7 +37038,7 @@
         <v>1273</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1279</v>
@@ -36987,13 +37079,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37014,7 +37106,7 @@
         <v>1274</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1279</v>
@@ -37055,13 +37147,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37082,7 +37174,7 @@
         <v>1275</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1279</v>
@@ -37123,10 +37215,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I421" s="19" t="s">
         <v>1512</v>
-      </c>
-      <c r="I421" s="19" t="s">
-        <v>1513</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37144,13 +37236,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37165,7 +37257,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37191,13 +37283,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H422" s="6" t="s">
         <v>1582</v>
       </c>
-      <c r="H422" s="6" t="s">
-        <v>1583</v>
-      </c>
       <c r="I422" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -37215,10 +37307,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -37259,13 +37351,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -37283,10 +37375,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -37327,13 +37419,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -37351,10 +37443,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -37395,10 +37487,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I425" s="6" t="s">
         <v>1523</v>
-      </c>
-      <c r="I425" s="6" t="s">
-        <v>1524</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37416,10 +37508,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -37451,10 +37543,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I426" s="6" t="s">
         <v>1525</v>
-      </c>
-      <c r="I426" s="6" t="s">
-        <v>1526</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37472,10 +37564,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -37507,10 +37599,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I427" s="6" t="s">
         <v>1527</v>
-      </c>
-      <c r="I427" s="6" t="s">
-        <v>1528</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37528,10 +37620,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -37563,10 +37655,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I428" s="6" t="s">
         <v>1529</v>
-      </c>
-      <c r="I428" s="6" t="s">
-        <v>1530</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37584,10 +37676,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -37619,10 +37711,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I429" s="6" t="s">
         <v>1531</v>
-      </c>
-      <c r="I429" s="6" t="s">
-        <v>1532</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37640,10 +37732,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37675,13 +37767,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H430" s="19" t="s">
         <v>1543</v>
       </c>
-      <c r="H430" s="19" t="s">
+      <c r="I430" s="19" t="s">
         <v>1544</v>
-      </c>
-      <c r="I430" s="19" t="s">
-        <v>1545</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37699,13 +37791,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
+        <v>1545</v>
+      </c>
+      <c r="Q430" s="39" t="s">
         <v>1546</v>
       </c>
-      <c r="Q430" s="39" t="s">
+      <c r="V430" s="19" t="s">
         <v>1547</v>
-      </c>
-      <c r="V430" s="19" t="s">
-        <v>1548</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37743,13 +37835,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H431" s="19" t="s">
         <v>1549</v>
       </c>
-      <c r="H431" s="19" t="s">
+      <c r="I431" s="19" t="s">
         <v>1550</v>
-      </c>
-      <c r="I431" s="19" t="s">
-        <v>1551</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37767,10 +37859,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37811,13 +37903,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H432" s="19" t="s">
+        <v>1552</v>
+      </c>
+      <c r="I432" s="19" t="s">
         <v>1553</v>
-      </c>
-      <c r="I432" s="19" t="s">
-        <v>1554</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37835,10 +37927,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37879,13 +37971,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H433" s="19" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I433" s="19" t="s">
         <v>1556</v>
-      </c>
-      <c r="I433" s="19" t="s">
-        <v>1557</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37903,10 +37995,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37947,13 +38039,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K434" s="5">
         <v>-31</v>
@@ -37971,10 +38063,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="V434" s="5" t="s">
         <v>551</v>
@@ -38012,13 +38104,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -38036,10 +38128,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="V435" s="5" t="s">
         <v>551</v>
@@ -38077,13 +38169,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="5" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38101,10 +38193,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>551</v>
@@ -38142,13 +38234,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38166,10 +38258,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="V437" s="5" t="s">
         <v>551</v>
@@ -38207,13 +38299,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38231,10 +38323,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="V438" s="5" t="s">
         <v>551</v>
@@ -38272,13 +38364,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38296,10 +38388,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="V439" s="5" t="s">
         <v>551</v>
@@ -38337,13 +38429,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38355,19 +38447,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38402,10 +38494,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38423,13 +38515,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38464,10 +38556,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38485,13 +38577,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38526,10 +38618,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38547,13 +38639,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38588,10 +38680,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38609,13 +38701,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38650,10 +38742,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38671,13 +38763,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="V445" s="5" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38712,10 +38804,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38733,13 +38825,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="Q446" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="V446" s="5" t="s">
         <v>1628</v>
-      </c>
-      <c r="V446" s="5" t="s">
-        <v>1629</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38774,13 +38866,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38798,10 +38890,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38842,13 +38934,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38866,10 +38958,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -38907,13 +38999,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -38931,10 +39023,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -38964,204 +39056,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="66">
+    <row r="450" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="64">
         <v>449</v>
       </c>
-      <c r="B450" s="66">
+      <c r="B450" s="64">
         <v>10366</v>
       </c>
-      <c r="F450" s="66">
-        <v>1</v>
-      </c>
-      <c r="G450" s="66" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H450" s="66" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I450" s="66" t="s">
-        <v>1700</v>
-      </c>
-      <c r="K450" s="66">
+      <c r="F450" s="64">
+        <v>1</v>
+      </c>
+      <c r="G450" s="64" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H450" s="64" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I450" s="64" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K450" s="64">
         <v>-31</v>
       </c>
-      <c r="L450" s="66">
-        <v>0</v>
-      </c>
-      <c r="M450" s="66">
-        <v>0</v>
-      </c>
-      <c r="N450" s="66" t="s">
+      <c r="L450" s="64">
+        <v>0</v>
+      </c>
+      <c r="M450" s="64">
+        <v>0</v>
+      </c>
+      <c r="N450" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O450" s="66">
+      <c r="O450" s="64">
         <v>3800</v>
       </c>
-      <c r="P450" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q450" s="67" t="s">
-        <v>1722</v>
+      <c r="P450" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q450" s="65" t="s">
+        <v>1721</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W450" s="66">
+      <c r="W450" s="64">
         <v>9999999</v>
       </c>
-      <c r="X450" s="66">
+      <c r="X450" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y450" s="66">
+      <c r="Y450" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z450" s="66">
+      <c r="Z450" s="64">
         <v>54</v>
       </c>
-      <c r="AG450" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH450" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK450" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL450" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="66">
+      <c r="AG450" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH450" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK450" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL450" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="64">
         <v>450</v>
       </c>
-      <c r="B451" s="66">
+      <c r="B451" s="64">
         <v>10367</v>
       </c>
-      <c r="F451" s="66">
-        <v>1</v>
-      </c>
-      <c r="G451" s="66" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H451" s="66" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I451" s="66" t="s">
-        <v>1701</v>
-      </c>
-      <c r="K451" s="66">
+      <c r="F451" s="64">
+        <v>1</v>
+      </c>
+      <c r="G451" s="64" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H451" s="64" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I451" s="64" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K451" s="64">
         <v>-31</v>
       </c>
-      <c r="L451" s="66">
-        <v>0</v>
-      </c>
-      <c r="M451" s="66">
-        <v>0</v>
-      </c>
-      <c r="N451" s="66" t="s">
+      <c r="L451" s="64">
+        <v>0</v>
+      </c>
+      <c r="M451" s="64">
+        <v>0</v>
+      </c>
+      <c r="N451" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O451" s="66">
+      <c r="O451" s="64">
         <v>3800</v>
       </c>
-      <c r="P451" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q451" s="67" t="s">
-        <v>1723</v>
+      <c r="P451" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q451" s="65" t="s">
+        <v>1722</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W451" s="66">
+      <c r="W451" s="64">
         <v>9999999</v>
       </c>
-      <c r="X451" s="66">
+      <c r="X451" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y451" s="66">
+      <c r="Y451" s="64">
         <v>2552233600</v>
       </c>
-      <c r="AG451" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH451" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK451" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL451" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:38" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="66">
+      <c r="AG451" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH451" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK451" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL451" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:38" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="64">
         <v>451</v>
       </c>
-      <c r="B452" s="66">
+      <c r="B452" s="64">
         <v>10368</v>
       </c>
-      <c r="F452" s="66">
-        <v>1</v>
-      </c>
-      <c r="G452" s="66" t="s">
-        <v>1644</v>
-      </c>
-      <c r="H452" s="66" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I452" s="66" t="s">
-        <v>1702</v>
-      </c>
-      <c r="K452" s="66">
+      <c r="F452" s="64">
+        <v>1</v>
+      </c>
+      <c r="G452" s="64" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H452" s="64" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I452" s="64" t="s">
+        <v>1701</v>
+      </c>
+      <c r="K452" s="64">
         <v>-31</v>
       </c>
-      <c r="L452" s="66">
-        <v>0</v>
-      </c>
-      <c r="M452" s="66">
-        <v>0</v>
-      </c>
-      <c r="N452" s="66" t="s">
+      <c r="L452" s="64">
+        <v>0</v>
+      </c>
+      <c r="M452" s="64">
+        <v>0</v>
+      </c>
+      <c r="N452" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O452" s="66">
+      <c r="O452" s="64">
         <v>3800</v>
       </c>
-      <c r="P452" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q452" s="67" t="s">
-        <v>1724</v>
+      <c r="P452" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q452" s="65" t="s">
+        <v>1723</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W452" s="66">
+      <c r="W452" s="64">
         <v>9999999</v>
       </c>
-      <c r="X452" s="66">
+      <c r="X452" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y452" s="66">
+      <c r="Y452" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z452" s="66">
+      <c r="Z452" s="64">
         <v>55</v>
       </c>
-      <c r="AG452" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH452" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK452" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL452" s="66">
+      <c r="AG452" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH452" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK452" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL452" s="64">
         <v>1</v>
       </c>
     </row>
@@ -39176,13 +39268,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39200,10 +39292,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39244,13 +39336,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39268,10 +39360,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39309,13 +39401,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39333,10 +39425,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39366,204 +39458,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="66">
+    <row r="456" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="64">
         <v>455</v>
       </c>
-      <c r="B456" s="66">
+      <c r="B456" s="64">
         <v>10372</v>
       </c>
-      <c r="F456" s="66">
-        <v>1</v>
-      </c>
-      <c r="G456" s="66" t="s">
-        <v>1635</v>
-      </c>
-      <c r="H456" s="66" t="s">
-        <v>1660</v>
-      </c>
-      <c r="I456" s="66" t="s">
-        <v>1706</v>
-      </c>
-      <c r="K456" s="66">
+      <c r="F456" s="64">
+        <v>1</v>
+      </c>
+      <c r="G456" s="64" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H456" s="64" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I456" s="64" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K456" s="64">
         <v>-31</v>
       </c>
-      <c r="L456" s="66">
-        <v>0</v>
-      </c>
-      <c r="M456" s="66">
-        <v>0</v>
-      </c>
-      <c r="N456" s="66" t="s">
+      <c r="L456" s="64">
+        <v>0</v>
+      </c>
+      <c r="M456" s="64">
+        <v>0</v>
+      </c>
+      <c r="N456" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O456" s="66">
+      <c r="O456" s="64">
         <v>19800</v>
       </c>
-      <c r="P456" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q456" s="67" t="s">
-        <v>1728</v>
+      <c r="P456" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q456" s="65" t="s">
+        <v>1727</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W456" s="66">
+      <c r="W456" s="64">
         <v>9999999</v>
       </c>
-      <c r="X456" s="66">
+      <c r="X456" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y456" s="66">
+      <c r="Y456" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z456" s="66">
+      <c r="Z456" s="64">
         <v>58</v>
       </c>
-      <c r="AG456" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH456" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK456" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL456" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="66">
+      <c r="AG456" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH456" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK456" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL456" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="64">
         <v>456</v>
       </c>
-      <c r="B457" s="66">
+      <c r="B457" s="64">
         <v>10373</v>
       </c>
-      <c r="F457" s="66">
-        <v>1</v>
-      </c>
-      <c r="G457" s="66" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H457" s="66" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I457" s="66" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K457" s="66">
+      <c r="F457" s="64">
+        <v>1</v>
+      </c>
+      <c r="G457" s="64" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H457" s="64" t="s">
+        <v>1660</v>
+      </c>
+      <c r="I457" s="64" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K457" s="64">
         <v>-31</v>
       </c>
-      <c r="L457" s="66">
-        <v>0</v>
-      </c>
-      <c r="M457" s="66">
-        <v>0</v>
-      </c>
-      <c r="N457" s="66" t="s">
+      <c r="L457" s="64">
+        <v>0</v>
+      </c>
+      <c r="M457" s="64">
+        <v>0</v>
+      </c>
+      <c r="N457" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O457" s="66">
+      <c r="O457" s="64">
         <v>19800</v>
       </c>
-      <c r="P457" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q457" s="67" t="s">
-        <v>1729</v>
+      <c r="P457" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q457" s="65" t="s">
+        <v>1728</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W457" s="66">
+      <c r="W457" s="64">
         <v>9999999</v>
       </c>
-      <c r="X457" s="66">
+      <c r="X457" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y457" s="66">
+      <c r="Y457" s="64">
         <v>2552233600</v>
       </c>
-      <c r="AG457" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH457" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK457" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL457" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="66">
+      <c r="AG457" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH457" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK457" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL457" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="64">
         <v>457</v>
       </c>
-      <c r="B458" s="66">
+      <c r="B458" s="64">
         <v>10374</v>
       </c>
-      <c r="F458" s="66">
-        <v>1</v>
-      </c>
-      <c r="G458" s="66" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H458" s="66" t="s">
-        <v>1662</v>
-      </c>
-      <c r="I458" s="66" t="s">
-        <v>1708</v>
-      </c>
-      <c r="K458" s="66">
+      <c r="F458" s="64">
+        <v>1</v>
+      </c>
+      <c r="G458" s="64" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H458" s="64" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I458" s="64" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K458" s="64">
         <v>-31</v>
       </c>
-      <c r="L458" s="66">
-        <v>0</v>
-      </c>
-      <c r="M458" s="66">
-        <v>0</v>
-      </c>
-      <c r="N458" s="66" t="s">
+      <c r="L458" s="64">
+        <v>0</v>
+      </c>
+      <c r="M458" s="64">
+        <v>0</v>
+      </c>
+      <c r="N458" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O458" s="66">
+      <c r="O458" s="64">
         <v>19800</v>
       </c>
-      <c r="P458" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q458" s="67" t="s">
-        <v>1730</v>
+      <c r="P458" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q458" s="65" t="s">
+        <v>1729</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W458" s="66">
+      <c r="W458" s="64">
         <v>9999999</v>
       </c>
-      <c r="X458" s="66">
+      <c r="X458" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y458" s="66">
+      <c r="Y458" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z458" s="66">
+      <c r="Z458" s="64">
         <v>59</v>
       </c>
-      <c r="AG458" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH458" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK458" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL458" s="66">
+      <c r="AG458" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH458" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK458" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL458" s="64">
         <v>1</v>
       </c>
     </row>
@@ -39578,13 +39670,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39602,10 +39694,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39646,13 +39738,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39670,10 +39762,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39711,13 +39803,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39735,10 +39827,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39768,204 +39860,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="66">
+    <row r="462" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="64">
         <v>461</v>
       </c>
-      <c r="B462" s="66">
+      <c r="B462" s="64">
         <v>10378</v>
       </c>
-      <c r="F462" s="66">
-        <v>1</v>
-      </c>
-      <c r="G462" s="66" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H462" s="66" t="s">
-        <v>1666</v>
-      </c>
-      <c r="I462" s="66" t="s">
-        <v>1712</v>
-      </c>
-      <c r="K462" s="66">
+      <c r="F462" s="64">
+        <v>1</v>
+      </c>
+      <c r="G462" s="64" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H462" s="64" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I462" s="64" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K462" s="64">
         <v>-31</v>
       </c>
-      <c r="L462" s="66">
-        <v>0</v>
-      </c>
-      <c r="M462" s="66">
-        <v>0</v>
-      </c>
-      <c r="N462" s="66" t="s">
+      <c r="L462" s="64">
+        <v>0</v>
+      </c>
+      <c r="M462" s="64">
+        <v>0</v>
+      </c>
+      <c r="N462" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O462" s="66">
+      <c r="O462" s="64">
         <v>99800</v>
       </c>
-      <c r="P462" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q462" s="67" t="s">
-        <v>1734</v>
+      <c r="P462" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q462" s="65" t="s">
+        <v>1733</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W462" s="66">
+      <c r="W462" s="64">
         <v>9999999</v>
       </c>
-      <c r="X462" s="66">
+      <c r="X462" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y462" s="66">
+      <c r="Y462" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z462" s="66">
+      <c r="Z462" s="64">
         <v>62</v>
       </c>
-      <c r="AG462" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH462" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK462" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL462" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="66">
+      <c r="AG462" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH462" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK462" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL462" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="64">
         <v>462</v>
       </c>
-      <c r="B463" s="66">
+      <c r="B463" s="64">
         <v>10379</v>
       </c>
-      <c r="F463" s="66">
-        <v>1</v>
-      </c>
-      <c r="G463" s="66" t="s">
+      <c r="F463" s="64">
+        <v>1</v>
+      </c>
+      <c r="G463" s="64" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H463" s="64" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I463" s="64" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K463" s="64">
+        <v>-31</v>
+      </c>
+      <c r="L463" s="64">
+        <v>0</v>
+      </c>
+      <c r="M463" s="64">
+        <v>0</v>
+      </c>
+      <c r="N463" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="O463" s="64">
+        <v>99800</v>
+      </c>
+      <c r="P463" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q463" s="65" t="s">
+        <v>1734</v>
+      </c>
+      <c r="V463" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="W463" s="64">
+        <v>9999999</v>
+      </c>
+      <c r="X463" s="64">
+        <v>1605571200</v>
+      </c>
+      <c r="Y463" s="64">
+        <v>2552233600</v>
+      </c>
+      <c r="AG463" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH463" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK463" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL463" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:38" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="64">
+        <v>463</v>
+      </c>
+      <c r="B464" s="64">
+        <v>10380</v>
+      </c>
+      <c r="F464" s="64">
+        <v>1</v>
+      </c>
+      <c r="G464" s="64" t="s">
         <v>1649</v>
       </c>
-      <c r="H463" s="66" t="s">
+      <c r="H464" s="64" t="s">
         <v>1667</v>
       </c>
-      <c r="I463" s="66" t="s">
+      <c r="I464" s="64" t="s">
         <v>1713</v>
       </c>
-      <c r="K463" s="66">
+      <c r="K464" s="64">
         <v>-31</v>
       </c>
-      <c r="L463" s="66">
-        <v>0</v>
-      </c>
-      <c r="M463" s="66">
-        <v>0</v>
-      </c>
-      <c r="N463" s="66" t="s">
+      <c r="L464" s="64">
+        <v>0</v>
+      </c>
+      <c r="M464" s="64">
+        <v>0</v>
+      </c>
+      <c r="N464" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="O463" s="66">
+      <c r="O464" s="64">
         <v>99800</v>
       </c>
-      <c r="P463" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q463" s="67" t="s">
+      <c r="P464" s="64" t="s">
+        <v>1675</v>
+      </c>
+      <c r="Q464" s="65" t="s">
         <v>1735</v>
-      </c>
-      <c r="V463" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="W463" s="66">
-        <v>9999999</v>
-      </c>
-      <c r="X463" s="66">
-        <v>1605571200</v>
-      </c>
-      <c r="Y463" s="66">
-        <v>2552233600</v>
-      </c>
-      <c r="AG463" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH463" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK463" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL463" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:38" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="66">
-        <v>463</v>
-      </c>
-      <c r="B464" s="66">
-        <v>10380</v>
-      </c>
-      <c r="F464" s="66">
-        <v>1</v>
-      </c>
-      <c r="G464" s="66" t="s">
-        <v>1650</v>
-      </c>
-      <c r="H464" s="66" t="s">
-        <v>1668</v>
-      </c>
-      <c r="I464" s="66" t="s">
-        <v>1714</v>
-      </c>
-      <c r="K464" s="66">
-        <v>-31</v>
-      </c>
-      <c r="L464" s="66">
-        <v>0</v>
-      </c>
-      <c r="M464" s="66">
-        <v>0</v>
-      </c>
-      <c r="N464" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="O464" s="66">
-        <v>99800</v>
-      </c>
-      <c r="P464" s="66" t="s">
-        <v>1676</v>
-      </c>
-      <c r="Q464" s="67" t="s">
-        <v>1736</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="W464" s="66">
+      <c r="W464" s="64">
         <v>9999999</v>
       </c>
-      <c r="X464" s="66">
+      <c r="X464" s="64">
         <v>1605571200</v>
       </c>
-      <c r="Y464" s="66">
+      <c r="Y464" s="64">
         <v>2552233600</v>
       </c>
-      <c r="Z464" s="66">
+      <c r="Z464" s="64">
         <v>63</v>
       </c>
-      <c r="AG464" s="66">
-        <v>1</v>
-      </c>
-      <c r="AH464" s="66">
-        <v>1</v>
-      </c>
-      <c r="AK464" s="66">
-        <v>1</v>
-      </c>
-      <c r="AL464" s="66">
+      <c r="AG464" s="64">
+        <v>1</v>
+      </c>
+      <c r="AH464" s="64">
+        <v>1</v>
+      </c>
+      <c r="AK464" s="64">
+        <v>1</v>
+      </c>
+      <c r="AL464" s="64">
         <v>1</v>
       </c>
     </row>
@@ -39980,13 +40072,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40004,10 +40096,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40048,13 +40140,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40072,10 +40164,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40113,13 +40205,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40137,10 +40229,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40170,528 +40262,785 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="60">
+    <row r="468" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="58">
         <v>467</v>
       </c>
-      <c r="B468" s="60">
+      <c r="B468" s="58">
         <v>10384</v>
       </c>
-      <c r="F468" s="60">
-        <v>1</v>
-      </c>
-      <c r="G468" s="60" t="s">
+      <c r="F468" s="58">
+        <v>1</v>
+      </c>
+      <c r="G468" s="58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H468" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I468" s="58" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K468" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L468" s="58">
+        <v>0</v>
+      </c>
+      <c r="M468" s="58">
+        <v>0</v>
+      </c>
+      <c r="N468" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O468" s="58">
+        <v>600</v>
+      </c>
+      <c r="P468" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q468" s="59" t="s">
+        <v>1739</v>
+      </c>
+      <c r="V468" s="58" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W468" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X468" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y468" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK468" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL468" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="58">
+        <v>468</v>
+      </c>
+      <c r="B469" s="58">
+        <v>10385</v>
+      </c>
+      <c r="F469" s="58">
+        <v>1</v>
+      </c>
+      <c r="G469" s="58" t="s">
         <v>1677</v>
       </c>
-      <c r="H468" s="60" t="s">
+      <c r="H469" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I469" s="58" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K469" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L469" s="58">
+        <v>0</v>
+      </c>
+      <c r="M469" s="58">
+        <v>0</v>
+      </c>
+      <c r="N469" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O469" s="58">
+        <v>3000</v>
+      </c>
+      <c r="P469" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q469" s="59" t="s">
+        <v>1740</v>
+      </c>
+      <c r="V469" s="58" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W469" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X469" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y469" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK469" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL469" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="58">
+        <v>469</v>
+      </c>
+      <c r="B470" s="58">
+        <v>10386</v>
+      </c>
+      <c r="F470" s="58">
+        <v>1</v>
+      </c>
+      <c r="G470" s="58" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H470" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I470" s="58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K470" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L470" s="58">
+        <v>0</v>
+      </c>
+      <c r="M470" s="58">
+        <v>0</v>
+      </c>
+      <c r="N470" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O470" s="58">
+        <v>6800</v>
+      </c>
+      <c r="P470" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q470" s="59" t="s">
+        <v>861</v>
+      </c>
+      <c r="V470" s="58" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W470" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X470" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y470" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK470" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL470" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="58">
+        <v>470</v>
+      </c>
+      <c r="B471" s="58">
+        <v>10387</v>
+      </c>
+      <c r="F471" s="58">
+        <v>1</v>
+      </c>
+      <c r="G471" s="58" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H471" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I471" s="58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K471" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L471" s="58">
+        <v>0</v>
+      </c>
+      <c r="M471" s="58">
+        <v>0</v>
+      </c>
+      <c r="N471" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O471" s="58">
+        <v>9800</v>
+      </c>
+      <c r="P471" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q471" s="59" t="s">
+        <v>1741</v>
+      </c>
+      <c r="V471" s="58" t="s">
+        <v>1759</v>
+      </c>
+      <c r="W471" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X471" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y471" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK471" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL471" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="58">
+        <v>471</v>
+      </c>
+      <c r="B472" s="58">
+        <v>10388</v>
+      </c>
+      <c r="F472" s="58">
+        <v>1</v>
+      </c>
+      <c r="G472" s="58" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H472" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I472" s="58" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K472" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L472" s="58">
+        <v>0</v>
+      </c>
+      <c r="M472" s="58">
+        <v>0</v>
+      </c>
+      <c r="N472" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O472" s="58">
+        <v>19800</v>
+      </c>
+      <c r="P472" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q472" s="59" t="s">
+        <v>862</v>
+      </c>
+      <c r="V472" s="58" t="s">
+        <v>1759</v>
+      </c>
+      <c r="W472" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X472" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y472" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK472" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL472" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="58">
+        <v>472</v>
+      </c>
+      <c r="B473" s="58">
+        <v>10389</v>
+      </c>
+      <c r="F473" s="58">
+        <v>1</v>
+      </c>
+      <c r="G473" s="58" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H473" s="58" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I473" s="58" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K473" s="58">
+        <v>-31</v>
+      </c>
+      <c r="L473" s="58">
+        <v>0</v>
+      </c>
+      <c r="M473" s="58">
+        <v>0</v>
+      </c>
+      <c r="N473" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="O473" s="58">
+        <v>49800</v>
+      </c>
+      <c r="P473" s="58" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q473" s="59" t="s">
+        <v>1742</v>
+      </c>
+      <c r="V473" s="58" t="s">
+        <v>1759</v>
+      </c>
+      <c r="W473" s="58">
+        <v>9999999</v>
+      </c>
+      <c r="X473" s="58">
+        <v>1605571200</v>
+      </c>
+      <c r="Y473" s="58">
+        <v>2552233600</v>
+      </c>
+      <c r="AG473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AH473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AK473" s="58">
+        <v>1</v>
+      </c>
+      <c r="AL473" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="68">
+        <v>473</v>
+      </c>
+      <c r="B474" s="68">
+        <v>10390</v>
+      </c>
+      <c r="F474" s="68">
+        <v>1</v>
+      </c>
+      <c r="G474" s="68" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H474" s="68" t="s">
         <v>1685</v>
       </c>
-      <c r="I468" s="60" t="s">
-        <v>1687</v>
-      </c>
-      <c r="K468" s="60">
+      <c r="I474" s="68" t="s">
+        <v>1692</v>
+      </c>
+      <c r="K474" s="68">
         <v>-31</v>
       </c>
-      <c r="L468" s="60">
-        <v>0</v>
-      </c>
-      <c r="M468" s="60">
-        <v>0</v>
-      </c>
-      <c r="N468" s="60" t="s">
+      <c r="L474" s="68">
+        <v>0</v>
+      </c>
+      <c r="M474" s="68">
+        <v>0</v>
+      </c>
+      <c r="N474" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="O468" s="60">
-        <v>600</v>
-      </c>
-      <c r="P468" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q468" s="61" t="s">
-        <v>1740</v>
-      </c>
-      <c r="V468" s="60" t="s">
-        <v>1761</v>
-      </c>
-      <c r="W468" s="60">
+      <c r="O474" s="68">
+        <v>99800</v>
+      </c>
+      <c r="P474" s="68" t="s">
+        <v>1695</v>
+      </c>
+      <c r="Q474" s="69" t="s">
+        <v>1743</v>
+      </c>
+      <c r="V474" s="68" t="s">
+        <v>1759</v>
+      </c>
+      <c r="W474" s="68">
         <v>9999999</v>
       </c>
-      <c r="X468" s="60">
+      <c r="X474" s="68">
         <v>1605571200</v>
       </c>
-      <c r="Y468" s="60">
+      <c r="Y474" s="68">
         <v>2552233600</v>
       </c>
-      <c r="AG468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK468" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL468" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="60">
-        <v>468</v>
-      </c>
-      <c r="B469" s="60">
-        <v>10385</v>
-      </c>
-      <c r="F469" s="60">
-        <v>1</v>
-      </c>
-      <c r="G469" s="60" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H469" s="60" t="s">
+      <c r="AG474" s="68">
+        <v>1</v>
+      </c>
+      <c r="AH474" s="68">
+        <v>1</v>
+      </c>
+      <c r="AK474" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL474" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="68">
+        <v>474</v>
+      </c>
+      <c r="B475" s="68">
+        <v>10391</v>
+      </c>
+      <c r="F475" s="68">
+        <v>1</v>
+      </c>
+      <c r="G475" s="68" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H475" s="68" t="s">
         <v>1685</v>
       </c>
-      <c r="I469" s="60" t="s">
-        <v>1688</v>
-      </c>
-      <c r="K469" s="60">
+      <c r="I475" s="68" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K475" s="68">
         <v>-31</v>
       </c>
-      <c r="L469" s="60">
-        <v>0</v>
-      </c>
-      <c r="M469" s="60">
-        <v>0</v>
-      </c>
-      <c r="N469" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O469" s="60">
-        <v>3000</v>
-      </c>
-      <c r="P469" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q469" s="61" t="s">
-        <v>1741</v>
-      </c>
-      <c r="V469" s="60" t="s">
-        <v>1761</v>
-      </c>
-      <c r="W469" s="60">
+      <c r="L475" s="68">
+        <v>0</v>
+      </c>
+      <c r="M475" s="68">
+        <v>0</v>
+      </c>
+      <c r="N475" s="68" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O475" s="68">
+        <v>249800</v>
+      </c>
+      <c r="P475" s="68" t="s">
+        <v>1772</v>
+      </c>
+      <c r="Q475" s="69" t="s">
+        <v>1744</v>
+      </c>
+      <c r="V475" s="68" t="s">
+        <v>1759</v>
+      </c>
+      <c r="W475" s="68">
         <v>9999999</v>
       </c>
-      <c r="X469" s="60">
+      <c r="X475" s="68">
         <v>1605571200</v>
       </c>
-      <c r="Y469" s="60">
+      <c r="Y475" s="68">
         <v>2552233600</v>
       </c>
-      <c r="AG469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK469" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL469" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="60">
-        <v>469</v>
-      </c>
-      <c r="B470" s="60">
-        <v>10386</v>
-      </c>
-      <c r="F470" s="60">
-        <v>1</v>
-      </c>
-      <c r="G470" s="60" t="s">
-        <v>1679</v>
-      </c>
-      <c r="H470" s="60" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I470" s="60" t="s">
-        <v>1689</v>
-      </c>
-      <c r="K470" s="60">
+      <c r="AG475" s="68">
+        <v>1</v>
+      </c>
+      <c r="AH475" s="68">
+        <v>1</v>
+      </c>
+      <c r="AK475" s="68">
+        <v>1</v>
+      </c>
+      <c r="AL475" s="68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="70">
+        <v>475</v>
+      </c>
+      <c r="B476" s="70">
+        <v>10392</v>
+      </c>
+      <c r="F476" s="70">
+        <v>1</v>
+      </c>
+      <c r="G476" s="70" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H476" s="70" t="s">
+        <v>1765</v>
+      </c>
+      <c r="I476" s="70" t="s">
+        <v>1769</v>
+      </c>
+      <c r="K476" s="70">
         <v>-31</v>
       </c>
-      <c r="L470" s="60">
-        <v>0</v>
-      </c>
-      <c r="M470" s="60">
-        <v>0</v>
-      </c>
-      <c r="N470" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O470" s="60">
-        <v>6800</v>
-      </c>
-      <c r="P470" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q470" s="61" t="s">
-        <v>861</v>
-      </c>
-      <c r="V470" s="60" t="s">
-        <v>1761</v>
-      </c>
-      <c r="W470" s="60">
+      <c r="L476" s="70">
+        <v>0</v>
+      </c>
+      <c r="M476" s="70">
+        <v>0</v>
+      </c>
+      <c r="N476" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O476" s="70">
+        <v>49800</v>
+      </c>
+      <c r="P476" s="70" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Q476" s="71" t="s">
+        <v>1779</v>
+      </c>
+      <c r="V476" s="70" t="s">
+        <v>1783</v>
+      </c>
+      <c r="W476" s="70">
         <v>9999999</v>
       </c>
-      <c r="X470" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Y470" s="60">
-        <v>2552233600</v>
-      </c>
-      <c r="AG470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK470" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL470" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="60">
-        <v>470</v>
-      </c>
-      <c r="B471" s="60">
-        <v>10387</v>
-      </c>
-      <c r="F471" s="60">
-        <v>1</v>
-      </c>
-      <c r="G471" s="60" t="s">
-        <v>1680</v>
-      </c>
-      <c r="H471" s="60" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I471" s="60" t="s">
-        <v>1690</v>
-      </c>
-      <c r="K471" s="60">
+      <c r="X476" s="70">
+        <v>1606176000</v>
+      </c>
+      <c r="Y476" s="70">
+        <v>1606751999</v>
+      </c>
+      <c r="AG476" s="70">
+        <v>1</v>
+      </c>
+      <c r="AH476" s="70">
+        <v>1</v>
+      </c>
+      <c r="AK476" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL476" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="70">
+        <v>476</v>
+      </c>
+      <c r="B477" s="70">
+        <v>10393</v>
+      </c>
+      <c r="F477" s="70">
+        <v>1</v>
+      </c>
+      <c r="G477" s="70" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H477" s="70" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I477" s="70" t="s">
+        <v>1770</v>
+      </c>
+      <c r="K477" s="70">
         <v>-31</v>
       </c>
-      <c r="L471" s="60">
-        <v>0</v>
-      </c>
-      <c r="M471" s="60">
-        <v>0</v>
-      </c>
-      <c r="N471" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O471" s="60">
+      <c r="L477" s="70">
+        <v>0</v>
+      </c>
+      <c r="M477" s="70">
+        <v>0</v>
+      </c>
+      <c r="N477" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O477" s="70">
+        <v>19800</v>
+      </c>
+      <c r="P477" s="70" t="s">
+        <v>1774</v>
+      </c>
+      <c r="Q477" s="71" t="s">
+        <v>1780</v>
+      </c>
+      <c r="V477" s="70" t="s">
+        <v>1783</v>
+      </c>
+      <c r="W477" s="70">
+        <v>9999999</v>
+      </c>
+      <c r="X477" s="70">
+        <v>1606176000</v>
+      </c>
+      <c r="Y477" s="70">
+        <v>1606751999</v>
+      </c>
+      <c r="AG477" s="70">
+        <v>1</v>
+      </c>
+      <c r="AH477" s="70">
+        <v>1</v>
+      </c>
+      <c r="AK477" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL477" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="70">
+        <v>477</v>
+      </c>
+      <c r="B478" s="70">
+        <v>10394</v>
+      </c>
+      <c r="F478" s="70">
+        <v>1</v>
+      </c>
+      <c r="G478" s="70" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H478" s="70" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I478" s="70" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K478" s="70">
+        <v>-31</v>
+      </c>
+      <c r="L478" s="70">
+        <v>0</v>
+      </c>
+      <c r="M478" s="70">
+        <v>0</v>
+      </c>
+      <c r="N478" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O478" s="70">
         <v>9800</v>
       </c>
-      <c r="P471" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q471" s="61" t="s">
-        <v>1742</v>
-      </c>
-      <c r="V471" s="60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="W471" s="60">
+      <c r="P478" s="70" t="s">
+        <v>1775</v>
+      </c>
+      <c r="Q478" s="71" t="s">
+        <v>1781</v>
+      </c>
+      <c r="V478" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="W478" s="70">
         <v>9999999</v>
       </c>
-      <c r="X471" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Y471" s="60">
-        <v>2552233600</v>
-      </c>
-      <c r="AG471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK471" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL471" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="60">
-        <v>471</v>
-      </c>
-      <c r="B472" s="60">
-        <v>10388</v>
-      </c>
-      <c r="F472" s="60">
-        <v>1</v>
-      </c>
-      <c r="G472" s="60" t="s">
-        <v>1681</v>
-      </c>
-      <c r="H472" s="60" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I472" s="60" t="s">
-        <v>1691</v>
-      </c>
-      <c r="K472" s="60">
+      <c r="X478" s="70">
+        <v>1606176000</v>
+      </c>
+      <c r="Y478" s="70">
+        <v>1606751999</v>
+      </c>
+      <c r="AG478" s="70">
+        <v>1</v>
+      </c>
+      <c r="AH478" s="70">
+        <v>1</v>
+      </c>
+      <c r="AK478" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL478" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:38" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="70">
+        <v>478</v>
+      </c>
+      <c r="B479" s="70">
+        <v>10395</v>
+      </c>
+      <c r="F479" s="70">
+        <v>1</v>
+      </c>
+      <c r="G479" s="70" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H479" s="70" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I479" s="70" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K479" s="70">
         <v>-31</v>
       </c>
-      <c r="L472" s="60">
-        <v>0</v>
-      </c>
-      <c r="M472" s="60">
-        <v>0</v>
-      </c>
-      <c r="N472" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O472" s="60">
-        <v>19800</v>
-      </c>
-      <c r="P472" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q472" s="61" t="s">
-        <v>862</v>
-      </c>
-      <c r="V472" s="60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="W472" s="60">
+      <c r="L479" s="70">
+        <v>0</v>
+      </c>
+      <c r="M479" s="70">
+        <v>0</v>
+      </c>
+      <c r="N479" s="70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="O479" s="70">
+        <v>4800</v>
+      </c>
+      <c r="P479" s="70" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q479" s="71" t="s">
+        <v>1782</v>
+      </c>
+      <c r="V479" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="W479" s="70">
         <v>9999999</v>
       </c>
-      <c r="X472" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Y472" s="60">
-        <v>2552233600</v>
-      </c>
-      <c r="AG472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK472" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL472" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="60">
-        <v>472</v>
-      </c>
-      <c r="B473" s="60">
-        <v>10389</v>
-      </c>
-      <c r="F473" s="60">
-        <v>1</v>
-      </c>
-      <c r="G473" s="60" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H473" s="60" t="s">
-        <v>1685</v>
-      </c>
-      <c r="I473" s="60" t="s">
-        <v>1692</v>
-      </c>
-      <c r="K473" s="60">
-        <v>-31</v>
-      </c>
-      <c r="L473" s="60">
-        <v>0</v>
-      </c>
-      <c r="M473" s="60">
-        <v>0</v>
-      </c>
-      <c r="N473" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="O473" s="60">
-        <v>49800</v>
-      </c>
-      <c r="P473" s="60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q473" s="61" t="s">
-        <v>1743</v>
-      </c>
-      <c r="V473" s="60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="W473" s="60">
-        <v>9999999</v>
-      </c>
-      <c r="X473" s="60">
-        <v>1605571200</v>
-      </c>
-      <c r="Y473" s="60">
-        <v>2552233600</v>
-      </c>
-      <c r="AG473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AH473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AK473" s="60">
-        <v>1</v>
-      </c>
-      <c r="AL473" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="54">
-        <v>473</v>
-      </c>
-      <c r="B474" s="54">
-        <v>10390</v>
-      </c>
-      <c r="F474" s="58">
-        <v>1</v>
-      </c>
-      <c r="G474" s="58" t="s">
-        <v>1683</v>
-      </c>
-      <c r="H474" s="58" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I474" s="58" t="s">
-        <v>1693</v>
-      </c>
-      <c r="K474" s="58">
-        <v>-31</v>
-      </c>
-      <c r="L474" s="58">
-        <v>0</v>
-      </c>
-      <c r="M474" s="58">
-        <v>0</v>
-      </c>
-      <c r="N474" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="O474" s="58">
-        <v>99800</v>
-      </c>
-      <c r="P474" s="58" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q474" s="59" t="s">
-        <v>1744</v>
-      </c>
-      <c r="V474" s="60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="W474" s="58">
-        <v>9999999</v>
-      </c>
-      <c r="X474" s="58">
-        <v>1605571200</v>
-      </c>
-      <c r="Y474" s="58">
-        <v>2552233600</v>
-      </c>
-      <c r="AG474" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH474" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK474" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL474" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:38" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="54">
-        <v>474</v>
-      </c>
-      <c r="B475" s="54">
-        <v>10391</v>
-      </c>
-      <c r="F475" s="58">
-        <v>1</v>
-      </c>
-      <c r="G475" s="58" t="s">
-        <v>1684</v>
-      </c>
-      <c r="H475" s="58" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I475" s="58" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K475" s="58">
-        <v>-31</v>
-      </c>
-      <c r="L475" s="58">
-        <v>0</v>
-      </c>
-      <c r="M475" s="58">
-        <v>0</v>
-      </c>
-      <c r="N475" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="O475" s="58">
-        <v>249800</v>
-      </c>
-      <c r="P475" s="58" t="s">
-        <v>1696</v>
-      </c>
-      <c r="Q475" s="59" t="s">
-        <v>1745</v>
-      </c>
-      <c r="V475" s="60" t="s">
-        <v>1760</v>
-      </c>
-      <c r="W475" s="58">
-        <v>9999999</v>
-      </c>
-      <c r="X475" s="58">
-        <v>1605571200</v>
-      </c>
-      <c r="Y475" s="58">
-        <v>2552233600</v>
-      </c>
-      <c r="AG475" s="58">
-        <v>1</v>
-      </c>
-      <c r="AH475" s="58">
-        <v>1</v>
-      </c>
-      <c r="AK475" s="58">
-        <v>1</v>
-      </c>
-      <c r="AL475" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q476" s="10"/>
+      <c r="X479" s="70">
+        <v>1606176000</v>
+      </c>
+      <c r="Y479" s="70">
+        <v>1606751999</v>
+      </c>
+      <c r="AG479" s="70">
+        <v>1</v>
+      </c>
+      <c r="AH479" s="70">
+        <v>1</v>
+      </c>
+      <c r="AK479" s="70">
+        <v>1</v>
+      </c>
+      <c r="AL479" s="70">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -41121,7 +41470,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41327,7 +41676,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41341,7 +41690,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41351,39 +41700,39 @@
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68">
+      <c r="A45" s="66">
         <v>44</v>
       </c>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="67" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="66">
+        <v>45</v>
+      </c>
+      <c r="B46" s="67" t="s">
         <v>1762</v>
       </c>
-      <c r="C45" s="12">
-        <v>1</v>
-      </c>
-      <c r="D45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68">
-        <v>45</v>
-      </c>
-      <c r="B46" s="69" t="s">
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="66">
+        <v>46</v>
+      </c>
+      <c r="B47" s="67" t="s">
         <v>1763</v>
-      </c>
-      <c r="C46" s="12">
-        <v>1</v>
-      </c>
-      <c r="D46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68">
-        <v>46</v>
-      </c>
-      <c r="B47" s="69" t="s">
-        <v>1764</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41397,7 +41746,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -41411,7 +41760,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -41425,7 +41774,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -41439,7 +41788,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -41453,7 +41802,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -41467,7 +41816,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41481,7 +41830,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41495,7 +41844,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41509,7 +41858,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41523,7 +41872,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41537,7 +41886,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41551,7 +41900,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41565,7 +41914,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41579,7 +41928,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41593,7 +41942,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41607,7 +41956,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41621,7 +41970,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -41635,7 +41984,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -41649,7 +41998,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7353,10 +7353,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7537,10 +7533,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{last=10366,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7701,6 +7693,14 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8625,7 +8625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -10574,11 +10574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM488"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H250" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -33824,7 +33824,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1337</v>
@@ -38475,7 +38475,7 @@
         <v>1575</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38888,7 +38888,7 @@
         <v>1671</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38909,7 +38909,7 @@
         <v>1675</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38956,7 +38956,7 @@
         <v>1672</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38977,7 +38977,7 @@
         <v>1675</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -39021,7 +39021,7 @@
         <v>1673</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39042,7 +39042,7 @@
         <v>1675</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -39089,7 +39089,7 @@
         <v>1653</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K450" s="64">
         <v>-31</v>
@@ -39110,7 +39110,7 @@
         <v>1675</v>
       </c>
       <c r="Q450" s="65" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39157,7 +39157,7 @@
         <v>1654</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K451" s="64">
         <v>-31</v>
@@ -39178,7 +39178,7 @@
         <v>1675</v>
       </c>
       <c r="Q451" s="65" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39222,7 +39222,7 @@
         <v>1655</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K452" s="64">
         <v>-31</v>
@@ -39243,7 +39243,7 @@
         <v>1675</v>
       </c>
       <c r="Q452" s="65" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39290,7 +39290,7 @@
         <v>1656</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39311,7 +39311,7 @@
         <v>1675</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39358,7 +39358,7 @@
         <v>1657</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39379,7 +39379,7 @@
         <v>1675</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39423,7 +39423,7 @@
         <v>1658</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39444,7 +39444,7 @@
         <v>1675</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39491,7 +39491,7 @@
         <v>1659</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K456" s="64">
         <v>-31</v>
@@ -39512,7 +39512,7 @@
         <v>1675</v>
       </c>
       <c r="Q456" s="65" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39559,7 +39559,7 @@
         <v>1660</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K457" s="64">
         <v>-31</v>
@@ -39580,7 +39580,7 @@
         <v>1675</v>
       </c>
       <c r="Q457" s="65" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39624,7 +39624,7 @@
         <v>1661</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K458" s="64">
         <v>-31</v>
@@ -39645,7 +39645,7 @@
         <v>1675</v>
       </c>
       <c r="Q458" s="65" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39692,7 +39692,7 @@
         <v>1662</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39713,7 +39713,7 @@
         <v>1675</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39760,7 +39760,7 @@
         <v>1663</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39781,7 +39781,7 @@
         <v>1675</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39825,7 +39825,7 @@
         <v>1664</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39846,7 +39846,7 @@
         <v>1675</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39893,7 +39893,7 @@
         <v>1665</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K462" s="64">
         <v>-31</v>
@@ -39914,7 +39914,7 @@
         <v>1675</v>
       </c>
       <c r="Q462" s="65" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39961,7 +39961,7 @@
         <v>1666</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K463" s="64">
         <v>-31</v>
@@ -39982,10 +39982,10 @@
         <v>1675</v>
       </c>
       <c r="Q463" s="65" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V463" s="5" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="W463" s="64">
         <v>9999999</v>
@@ -40026,7 +40026,7 @@
         <v>1667</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K464" s="64">
         <v>-31</v>
@@ -40047,7 +40047,7 @@
         <v>1675</v>
       </c>
       <c r="Q464" s="65" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -40094,7 +40094,7 @@
         <v>1668</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40115,7 +40115,7 @@
         <v>1675</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40162,7 +40162,7 @@
         <v>1669</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40183,7 +40183,7 @@
         <v>1675</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40227,7 +40227,7 @@
         <v>1670</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40245,10 +40245,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40313,13 +40313,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40378,13 +40378,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40443,13 +40443,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q470" s="59" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40508,13 +40508,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="V471" s="58" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="W471" s="58">
         <v>9999999</v>
@@ -40573,13 +40573,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q472" s="59" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="58" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="W472" s="58">
         <v>9999999</v>
@@ -40638,13 +40638,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="58" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V473" s="58" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="W473" s="58">
         <v>9999999</v>
@@ -40703,13 +40703,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="68" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q474" s="69" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V474" s="68" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="W474" s="68">
         <v>9999999</v>
@@ -40750,7 +40750,7 @@
         <v>1685</v>
       </c>
       <c r="I475" s="68" t="s">
-        <v>1693</v>
+        <v>1784</v>
       </c>
       <c r="K475" s="68">
         <v>-31</v>
@@ -40762,19 +40762,19 @@
         <v>0</v>
       </c>
       <c r="N475" s="68" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O475" s="68">
         <v>249800</v>
       </c>
       <c r="P475" s="68" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="Q475" s="69" t="s">
-        <v>1744</v>
+        <v>1785</v>
       </c>
       <c r="V475" s="68" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="W475" s="68">
         <v>9999999</v>
@@ -40809,13 +40809,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H476" s="70" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="I476" s="70" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="K476" s="70">
         <v>-31</v>
@@ -40827,19 +40827,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O476" s="70">
         <v>49800</v>
       </c>
       <c r="P476" s="70" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q476" s="71" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="V476" s="70" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="W476" s="70">
         <v>9999999</v>
@@ -40874,13 +40874,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H477" s="70" t="s">
         <v>1764</v>
       </c>
-      <c r="H477" s="70" t="s">
-        <v>1766</v>
-      </c>
       <c r="I477" s="70" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="K477" s="70">
         <v>-31</v>
@@ -40892,19 +40892,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="70" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O477" s="70">
         <v>19800</v>
       </c>
       <c r="P477" s="70" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="Q477" s="71" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="V477" s="70" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="W477" s="70">
         <v>9999999</v>
@@ -40939,13 +40939,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H478" s="70" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="K478" s="70">
         <v>-31</v>
@@ -40957,16 +40957,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="70" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="O478" s="70">
         <v>9800</v>
       </c>
       <c r="P478" s="70" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="Q478" s="71" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="V478" s="70" t="s">
         <v>551</v>
@@ -41004,13 +41004,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H479" s="70" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="K479" s="70">
         <v>-31</v>
@@ -41028,13 +41028,13 @@
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="Q479" s="71" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41731,7 +41731,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41745,7 +41745,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41759,7 +41759,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41843,7 +41843,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41857,7 +41857,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41871,7 +41871,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41885,7 +41885,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41899,7 +41899,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41913,7 +41913,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41927,7 +41927,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41941,7 +41941,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41955,7 +41955,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41969,7 +41969,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41983,7 +41983,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41997,7 +41997,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -42011,7 +42011,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -42025,7 +42025,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_11.24/shoping_config.xlsx
+++ b/config_11.24/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1785">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5097,81 +5097,7 @@
     <t>"50万金币",</t>
   </si>
   <si>
-    <t>"75万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"318万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"538万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1108万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2218万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3288万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4388万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"6488万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"7688万金币","召唤*1","锁定*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>750000,1,1,</t>
-  </si>
-  <si>
-    <t>3180000,5,5,</t>
-  </si>
-  <si>
-    <t>22180000,40,40,</t>
-  </si>
-  <si>
-    <t>32880000,68,60,</t>
-  </si>
-  <si>
-    <t>54880000,110,100,</t>
-  </si>
-  <si>
-    <t>64880000,148,100,</t>
-  </si>
-  <si>
-    <t>76880000,158,100,</t>
-  </si>
-  <si>
-    <t>5380000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>11080000,20,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>43880000,88,80,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
@@ -5458,10 +5384,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7701,6 +7623,86 @@
   </si>
   <si>
     <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"75万金币","水滴*1","玩具锤*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","水滴*2","玩具锤*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","水滴*3","玩具锤*3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","水滴*4","玩具锤*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","水滴*5","玩具锤*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","水滴*6","玩具锤*6",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","水滴*7","玩具锤*7",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","水滴*8","玩具锤*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","水滴*10","玩具锤*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","水滴*20","玩具锤*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>76880000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>64880000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,8,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,7,7,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>32880000,6,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22180000,5,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,4,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380000,3,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3180000,2,2,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7774,6 +7776,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -8559,16 +8562,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -8680,7 +8683,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1351</v>
+        <v>1330</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
@@ -8698,7 +8701,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>1477</v>
+        <v>1456</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>22</v>
@@ -8790,7 +8793,7 @@
         <v>44</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>1472</v>
+        <v>1451</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -8870,7 +8873,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="50" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -8950,7 +8953,7 @@
         <v>44</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>1473</v>
+        <v>1452</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -9432,7 +9435,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -9759,7 +9762,7 @@
         <v>44</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -9921,7 +9924,7 @@
         <v>44</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>1475</v>
+        <v>1454</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -10140,7 +10143,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -10286,7 +10289,7 @@
         <v>44</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>1476</v>
+        <v>1455</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -10432,7 +10435,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -10508,13 +10511,13 @@
         <v>43</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>1474</v>
+        <v>1453</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -10575,10 +10578,10 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
+      <selection pane="bottomRight" activeCell="I332" sqref="I332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10643,7 +10646,7 @@
         <v>504</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1289</v>
+        <v>1268</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>93</v>
@@ -10973,7 +10976,7 @@
         <v>120</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -14951,7 +14954,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1495</v>
+        <v>1474</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14969,10 +14972,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1496</v>
+        <v>1475</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -15007,7 +15010,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1494</v>
+        <v>1473</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -15028,7 +15031,7 @@
         <v>503</v>
       </c>
       <c r="Q78" s="39" t="s">
-        <v>1362</v>
+        <v>1341</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>548</v>
@@ -15341,7 +15344,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1195</v>
+        <v>1175</v>
       </c>
       <c r="Q83" s="10" t="s">
         <v>738</v>
@@ -15453,10 +15456,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>550</v>
@@ -15560,10 +15563,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1196</v>
+        <v>1176</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1198</v>
+        <v>1178</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>550</v>
@@ -20444,7 +20447,7 @@
         <v>370</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -20462,10 +20465,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="Q168" s="39" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>548</v>
@@ -20509,7 +20512,7 @@
         <v>481</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -20527,10 +20530,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="Q169" s="39" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>627</v>
@@ -20571,7 +20574,7 @@
         <v>371</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -20589,10 +20592,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="Q170" s="39" t="s">
-        <v>1171</v>
+        <v>1151</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>627</v>
@@ -20630,10 +20633,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1302</v>
+        <v>1281</v>
       </c>
       <c r="I171" s="19" t="s">
         <v>1089</v>
@@ -20698,10 +20701,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1304</v>
+        <v>1283</v>
       </c>
       <c r="I172" s="19" t="s">
         <v>1090</v>
@@ -20766,10 +20769,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1301</v>
+        <v>1280</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1305</v>
+        <v>1284</v>
       </c>
       <c r="I173" s="19" t="s">
         <v>1091</v>
@@ -20834,10 +20837,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1306</v>
+        <v>1285</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1307</v>
+        <v>1286</v>
       </c>
       <c r="I174" s="19" t="s">
         <v>1092</v>
@@ -20902,10 +20905,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1308</v>
+        <v>1287</v>
       </c>
       <c r="I175" s="19" t="s">
         <v>1103</v>
@@ -20970,10 +20973,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1309</v>
+        <v>1288</v>
       </c>
       <c r="I176" s="19" t="s">
         <v>1104</v>
@@ -21038,10 +21041,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1310</v>
+        <v>1289</v>
       </c>
       <c r="I177" s="19" t="s">
         <v>1105</v>
@@ -21062,7 +21065,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1432</v>
+        <v>1411</v>
       </c>
       <c r="Q177" s="39" t="s">
         <v>779</v>
@@ -21106,10 +21109,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1311</v>
+        <v>1290</v>
       </c>
       <c r="I178" s="19" t="s">
         <v>1106</v>
@@ -21174,10 +21177,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1312</v>
+        <v>1291</v>
       </c>
       <c r="I179" s="19" t="s">
         <v>1107</v>
@@ -21242,10 +21245,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1313</v>
+        <v>1292</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1314</v>
+        <v>1293</v>
       </c>
       <c r="I180" s="19" t="s">
         <v>1097</v>
@@ -21310,10 +21313,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1315</v>
+        <v>1294</v>
       </c>
       <c r="I181" s="19" t="s">
         <v>1108</v>
@@ -21378,10 +21381,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1316</v>
+        <v>1295</v>
       </c>
       <c r="I182" s="19" t="s">
         <v>1109</v>
@@ -21446,10 +21449,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1317</v>
+        <v>1296</v>
       </c>
       <c r="I183" s="19" t="s">
         <v>1110</v>
@@ -21514,10 +21517,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1303</v>
+        <v>1282</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="I184" s="19" t="s">
         <v>1109</v>
@@ -21582,10 +21585,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1319</v>
+        <v>1298</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1320</v>
+        <v>1299</v>
       </c>
       <c r="I185" s="19" t="s">
         <v>1111</v>
@@ -25894,7 +25897,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1186</v>
+        <v>1166</v>
       </c>
       <c r="Q251" s="10" t="s">
         <v>836</v>
@@ -26024,7 +26027,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1441</v>
+        <v>1420</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>837</v>
@@ -29972,7 +29975,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1629</v>
+        <v>1608</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -30217,7 +30220,7 @@
         <v>649</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1200</v>
+        <v>1180</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>550</v>
@@ -30252,7 +30255,7 @@
         <v>648</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1199</v>
+        <v>1179</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -30465,7 +30468,7 @@
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -30700,7 +30703,7 @@
       </c>
       <c r="Q326" s="41"/>
       <c r="V326" s="40" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W326" s="40">
         <v>9999999</v>
@@ -30762,7 +30765,7 @@
         <v>1126</v>
       </c>
       <c r="Q327" s="47" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="V327" s="43" t="s">
         <v>1127</v>
@@ -30807,7 +30810,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1139</v>
+        <v>1766</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -30826,17 +30829,17 @@
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1225</v>
+        <v>1765</v>
       </c>
       <c r="Q328" s="47" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="R328" s="43"/>
       <c r="S328" s="43"/>
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -30889,7 +30892,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1140</v>
+        <v>1767</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -30908,17 +30911,17 @@
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q329" s="47" t="s">
-        <v>1151</v>
+        <v>1784</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W329" s="43">
         <v>99999999</v>
@@ -30971,7 +30974,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1141</v>
+        <v>1768</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -30990,17 +30993,17 @@
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q330" s="47" t="s">
-        <v>1157</v>
+        <v>1783</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W330" s="43">
         <v>99999999</v>
@@ -31053,7 +31056,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1142</v>
+        <v>1769</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31072,17 +31075,17 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q331" s="47" t="s">
-        <v>1158</v>
+        <v>1782</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W331" s="43">
         <v>99999999</v>
@@ -31135,7 +31138,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1143</v>
+        <v>1770</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31154,17 +31157,17 @@
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q332" s="47" t="s">
-        <v>1152</v>
+        <v>1781</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W332" s="43">
         <v>99999999</v>
@@ -31217,7 +31220,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1144</v>
+        <v>1771</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31236,17 +31239,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q333" s="47" t="s">
-        <v>1153</v>
+        <v>1780</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31299,7 +31302,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1145</v>
+        <v>1772</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31318,17 +31321,17 @@
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q334" s="47" t="s">
-        <v>1159</v>
+        <v>1779</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31381,7 +31384,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1146</v>
+        <v>1773</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31400,17 +31403,17 @@
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q335" s="47" t="s">
-        <v>1154</v>
+        <v>1778</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W335" s="43">
         <v>99999999</v>
@@ -31463,7 +31466,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1147</v>
+        <v>1774</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31482,17 +31485,17 @@
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q336" s="47" t="s">
-        <v>1155</v>
+        <v>1777</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31545,7 +31548,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1148</v>
+        <v>1775</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31564,17 +31567,17 @@
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1149</v>
+        <v>1765</v>
       </c>
       <c r="Q337" s="47" t="s">
-        <v>1156</v>
+        <v>1776</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -31620,10 +31623,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -31641,10 +31644,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="Q338" s="39" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>548</v>
@@ -31659,10 +31662,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1187</v>
+        <v>1167</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -31695,7 +31698,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -31714,10 +31717,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="Q339" s="39" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -31737,10 +31740,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1188</v>
+        <v>1168</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -31775,11 +31778,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -31798,10 +31801,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
       <c r="Q340" s="39" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -31821,10 +31824,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -31856,11 +31859,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -31881,10 +31884,10 @@
         <v>1093</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1226</v>
+        <v>1205</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -31902,7 +31905,7 @@
         <v>459</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -31928,10 +31931,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1202</v>
+        <v>1182</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1214</v>
+        <v>1194</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -31952,10 +31955,10 @@
         <v>1093</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -31973,7 +31976,7 @@
         <v>459</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1239</v>
+        <v>1218</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -31999,10 +32002,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1203</v>
+        <v>1183</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1215</v>
+        <v>1195</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -32023,10 +32026,10 @@
         <v>1093</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1228</v>
+        <v>1207</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -32044,7 +32047,7 @@
         <v>459</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1240</v>
+        <v>1219</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -32070,10 +32073,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1204</v>
+        <v>1184</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1216</v>
+        <v>1196</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -32094,10 +32097,10 @@
         <v>1093</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1229</v>
+        <v>1208</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -32115,7 +32118,7 @@
         <v>459</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1241</v>
+        <v>1220</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -32141,10 +32144,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1217</v>
+        <v>1197</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -32165,10 +32168,10 @@
         <v>1093</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1230</v>
+        <v>1209</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -32186,7 +32189,7 @@
         <v>459</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1242</v>
+        <v>1221</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -32212,10 +32215,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1218</v>
+        <v>1198</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -32236,10 +32239,10 @@
         <v>1093</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1231</v>
+        <v>1210</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -32257,7 +32260,7 @@
         <v>459</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -32283,10 +32286,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1207</v>
+        <v>1187</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -32307,10 +32310,10 @@
         <v>1093</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1233</v>
+        <v>1212</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -32328,7 +32331,7 @@
         <v>459</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1244</v>
+        <v>1223</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -32354,10 +32357,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1208</v>
+        <v>1188</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1220</v>
+        <v>1200</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -32378,10 +32381,10 @@
         <v>1093</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -32399,7 +32402,7 @@
         <v>459</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1245</v>
+        <v>1224</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -32425,10 +32428,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1209</v>
+        <v>1189</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -32449,10 +32452,10 @@
         <v>1093</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -32470,7 +32473,7 @@
         <v>459</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1246</v>
+        <v>1225</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -32496,10 +32499,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1210</v>
+        <v>1190</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1222</v>
+        <v>1202</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -32520,10 +32523,10 @@
         <v>1093</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1235</v>
+        <v>1214</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1257</v>
+        <v>1236</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -32541,7 +32544,7 @@
         <v>459</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1247</v>
+        <v>1226</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -32567,10 +32570,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -32591,10 +32594,10 @@
         <v>1093</v>
       </c>
       <c r="Q351" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="V351" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="V351" s="5" t="s">
-        <v>1257</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -32612,7 +32615,7 @@
         <v>459</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1248</v>
+        <v>1227</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -32638,10 +32641,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1224</v>
+        <v>1204</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -32662,10 +32665,10 @@
         <v>1093</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -32683,7 +32686,7 @@
         <v>459</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1249</v>
+        <v>1228</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -32709,13 +32712,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1290</v>
+        <v>1269</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>1291</v>
+        <v>1270</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -32727,16 +32730,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1266</v>
+        <v>1245</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>562</v>
@@ -32777,13 +32780,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -32801,10 +32804,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1264</v>
+        <v>1243</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>562</v>
@@ -32845,13 +32848,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -32869,13 +32872,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -32913,13 +32916,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -32937,13 +32940,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -32981,13 +32984,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1299</v>
+        <v>1278</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1509</v>
+        <v>1488</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33005,13 +33008,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -33049,13 +33052,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1294</v>
+        <v>1273</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -33073,13 +33076,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1286</v>
+        <v>1265</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -33117,13 +33120,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1298</v>
+        <v>1277</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -33141,13 +33144,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1276</v>
+        <v>1255</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -33185,13 +33188,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1292</v>
+        <v>1271</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -33209,13 +33212,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1277</v>
+        <v>1256</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -33253,13 +33256,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -33277,13 +33280,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1287</v>
+        <v>1266</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -33321,13 +33324,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1293</v>
+        <v>1272</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -33345,13 +33348,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1285</v>
+        <v>1264</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -33366,10 +33369,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1281</v>
+        <v>1260</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1288</v>
+        <v>1267</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -33395,13 +33398,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1297</v>
+        <v>1276</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1296</v>
+        <v>1275</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -33419,13 +33422,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -33440,10 +33443,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1282</v>
+        <v>1261</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -33469,13 +33472,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1300</v>
+        <v>1279</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1295</v>
+        <v>1274</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -33493,13 +33496,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1278</v>
+        <v>1257</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>282</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1284</v>
+        <v>1263</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -33514,10 +33517,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1280</v>
+        <v>1259</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -33543,10 +33546,10 @@
         <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1321</v>
+        <v>1300</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1327</v>
+        <v>1306</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -33564,10 +33567,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="Q365" s="10" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>595</v>
@@ -33608,10 +33611,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1323</v>
+        <v>1302</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -33629,10 +33632,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1334</v>
+        <v>1313</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>595</v>
@@ -33673,10 +33676,10 @@
         <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -33694,10 +33697,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1335</v>
+        <v>1314</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>595</v>
@@ -33738,10 +33741,10 @@
         <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1324</v>
+        <v>1303</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -33759,10 +33762,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1332</v>
+        <v>1311</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1336</v>
+        <v>1315</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>595</v>
@@ -33803,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1331</v>
+        <v>1310</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -33824,10 +33827,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1771</v>
+        <v>1750</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1337</v>
+        <v>1316</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>595</v>
@@ -33868,10 +33871,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1338</v>
+        <v>1317</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1342</v>
+        <v>1321</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -33889,10 +33892,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1346</v>
+        <v>1325</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>595</v>
@@ -33930,10 +33933,10 @@
         <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1339</v>
+        <v>1318</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -33951,10 +33954,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>562</v>
@@ -33992,10 +33995,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -34013,13 +34016,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1348</v>
+        <v>1327</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -34054,10 +34057,10 @@
         <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1341</v>
+        <v>1320</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1345</v>
+        <v>1324</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -34075,10 +34078,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1349</v>
+        <v>1328</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>564</v>
@@ -34116,10 +34119,10 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1354</v>
+        <v>1333</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>1355</v>
+        <v>1334</v>
       </c>
       <c r="I374" s="5" t="s">
         <v>1121</v>
@@ -34140,13 +34143,13 @@
         <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1493</v>
+        <v>1472</v>
       </c>
       <c r="V374" s="5" t="s">
-        <v>1357</v>
+        <v>1336</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -34184,13 +34187,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1358</v>
+        <v>1337</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1360</v>
+        <v>1339</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -34208,10 +34211,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1361</v>
+        <v>1340</v>
       </c>
       <c r="Q375" s="10" t="s">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="V375" s="5" t="s">
         <v>595</v>
@@ -34252,13 +34255,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1388</v>
+        <v>1367</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1366</v>
+        <v>1345</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -34270,19 +34273,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -34320,13 +34323,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>1365</v>
+        <v>1344</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1369</v>
+        <v>1348</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -34338,19 +34341,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>796</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -34388,13 +34391,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>1372</v>
+        <v>1351</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -34412,13 +34415,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q378" s="10" t="s">
-        <v>1384</v>
+        <v>1363</v>
       </c>
       <c r="V378" s="5" t="s">
-        <v>1373</v>
+        <v>1352</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -34456,10 +34459,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>951</v>
@@ -34474,19 +34477,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V379" s="5" t="s">
-        <v>1350</v>
+        <v>1329</v>
       </c>
       <c r="W379" s="5">
         <v>9999999</v>
@@ -34524,10 +34527,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1371</v>
+        <v>1350</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>952</v>
@@ -34542,19 +34545,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -34592,13 +34595,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1376</v>
+        <v>1355</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -34616,13 +34619,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1368</v>
+        <v>1347</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -34660,13 +34663,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1377</v>
+        <v>1356</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -34678,19 +34681,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1370</v>
+        <v>1349</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -34728,13 +34731,13 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1364</v>
+        <v>1343</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1343</v>
+        <v>1322</v>
       </c>
       <c r="K383" s="5">
         <v>-31</v>
@@ -34746,19 +34749,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>799</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -34796,13 +34799,13 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1378</v>
+        <v>1357</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1344</v>
+        <v>1323</v>
       </c>
       <c r="K384" s="5">
         <v>-31</v>
@@ -34814,19 +34817,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>802</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1379</v>
+        <v>1358</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -34864,13 +34867,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1363</v>
+        <v>1342</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1375</v>
+        <v>1354</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1380</v>
+        <v>1359</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -34882,19 +34885,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1367</v>
+        <v>1346</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1383</v>
+        <v>1362</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>803</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1374</v>
+        <v>1353</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -34932,13 +34935,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="62" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="H386" s="62" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="I386" s="62" t="s">
-        <v>1392</v>
+        <v>1371</v>
       </c>
       <c r="K386" s="62">
         <v>-31</v>
@@ -34950,19 +34953,19 @@
         <v>0</v>
       </c>
       <c r="N386" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O386" s="62">
         <v>1800</v>
       </c>
       <c r="P386" s="62" t="s">
-        <v>1402</v>
+        <v>1381</v>
       </c>
       <c r="Q386" s="63" t="s">
-        <v>1411</v>
+        <v>1390</v>
       </c>
       <c r="V386" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W386" s="62">
         <v>9999999</v>
@@ -35000,13 +35003,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="62" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H387" s="62" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="I387" s="62" t="s">
-        <v>1393</v>
+        <v>1372</v>
       </c>
       <c r="K387" s="62">
         <v>-31</v>
@@ -35018,19 +35021,19 @@
         <v>0</v>
       </c>
       <c r="N387" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O387" s="62">
         <v>3000</v>
       </c>
       <c r="P387" s="62" t="s">
-        <v>1404</v>
+        <v>1383</v>
       </c>
       <c r="Q387" s="63" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="V387" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W387" s="62">
         <v>9999999</v>
@@ -35068,13 +35071,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="62" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H388" s="62" t="s">
-        <v>1389</v>
+        <v>1368</v>
       </c>
       <c r="I388" s="62" t="s">
-        <v>1394</v>
+        <v>1373</v>
       </c>
       <c r="K388" s="62">
         <v>-31</v>
@@ -35086,19 +35089,19 @@
         <v>0</v>
       </c>
       <c r="N388" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O388" s="62">
         <v>4800</v>
       </c>
       <c r="P388" s="62" t="s">
-        <v>1405</v>
+        <v>1384</v>
       </c>
       <c r="Q388" s="63" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="V388" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W388" s="62">
         <v>9999999</v>
@@ -35136,13 +35139,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="60" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="H389" s="60" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="I389" s="60" t="s">
-        <v>1395</v>
+        <v>1374</v>
       </c>
       <c r="K389" s="60">
         <v>-31</v>
@@ -35154,19 +35157,19 @@
         <v>0</v>
       </c>
       <c r="N389" s="60" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O389" s="60">
         <v>4800</v>
       </c>
       <c r="P389" s="60" t="s">
-        <v>1406</v>
+        <v>1385</v>
       </c>
       <c r="Q389" s="61" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="V389" s="60" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W389" s="60">
         <v>9999999</v>
@@ -35204,13 +35207,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="60" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H390" s="60" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="I390" s="60" t="s">
-        <v>1396</v>
+        <v>1375</v>
       </c>
       <c r="K390" s="60">
         <v>-31</v>
@@ -35222,19 +35225,19 @@
         <v>0</v>
       </c>
       <c r="N390" s="60" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O390" s="60">
         <v>9800</v>
       </c>
       <c r="P390" s="60" t="s">
-        <v>1407</v>
+        <v>1386</v>
       </c>
       <c r="Q390" s="61" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="V390" s="60" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W390" s="60">
         <v>9999999</v>
@@ -35272,13 +35275,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="60" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H391" s="60" t="s">
-        <v>1390</v>
+        <v>1369</v>
       </c>
       <c r="I391" s="60" t="s">
-        <v>1397</v>
+        <v>1376</v>
       </c>
       <c r="K391" s="60">
         <v>-31</v>
@@ -35290,19 +35293,19 @@
         <v>0</v>
       </c>
       <c r="N391" s="60" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O391" s="60">
         <v>19800</v>
       </c>
       <c r="P391" s="60" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="Q391" s="61" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="V391" s="60" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W391" s="60">
         <v>9999999</v>
@@ -35340,13 +35343,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="62" t="s">
-        <v>1385</v>
+        <v>1364</v>
       </c>
       <c r="H392" s="62" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="I392" s="62" t="s">
-        <v>1398</v>
+        <v>1377</v>
       </c>
       <c r="K392" s="62">
         <v>-31</v>
@@ -35358,19 +35361,19 @@
         <v>0</v>
       </c>
       <c r="N392" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O392" s="62">
         <v>9800</v>
       </c>
       <c r="P392" s="62" t="s">
-        <v>1403</v>
+        <v>1382</v>
       </c>
       <c r="Q392" s="63" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="V392" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W392" s="62">
         <v>9999999</v>
@@ -35408,13 +35411,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="62" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="H393" s="62" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="I393" s="62" t="s">
-        <v>1399</v>
+        <v>1378</v>
       </c>
       <c r="K393" s="62">
         <v>-31</v>
@@ -35426,19 +35429,19 @@
         <v>0</v>
       </c>
       <c r="N393" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O393" s="62">
         <v>19800</v>
       </c>
       <c r="P393" s="62" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="Q393" s="63" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="V393" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W393" s="62">
         <v>9999999</v>
@@ -35476,13 +35479,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="62" t="s">
-        <v>1387</v>
+        <v>1366</v>
       </c>
       <c r="H394" s="62" t="s">
-        <v>1391</v>
+        <v>1370</v>
       </c>
       <c r="I394" s="62" t="s">
-        <v>1400</v>
+        <v>1379</v>
       </c>
       <c r="K394" s="62">
         <v>-31</v>
@@ -35494,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="N394" s="62" t="s">
-        <v>1401</v>
+        <v>1380</v>
       </c>
       <c r="O394" s="62">
         <v>49800</v>
       </c>
       <c r="P394" s="62" t="s">
-        <v>1410</v>
+        <v>1389</v>
       </c>
       <c r="Q394" s="63" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="V394" s="62" t="s">
-        <v>1421</v>
+        <v>1400</v>
       </c>
       <c r="W394" s="62">
         <v>9999999</v>
@@ -35544,10 +35547,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1422</v>
+        <v>1401</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="K395" s="5">
         <v>-31</v>
@@ -35565,10 +35568,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="5" t="s">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="Q395" s="10" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
       <c r="V395" s="5" t="s">
         <v>551</v>
@@ -35606,10 +35609,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1423</v>
+        <v>1402</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="K396" s="5">
         <v>-31</v>
@@ -35627,10 +35630,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="5" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="Q396" s="10" t="s">
-        <v>1439</v>
+        <v>1418</v>
       </c>
       <c r="V396" s="5" t="s">
         <v>551</v>
@@ -35671,7 +35674,7 @@
         <v>299</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="K397" s="5">
         <v>-31</v>
@@ -35689,10 +35692,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="5" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="Q397" s="10" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="V397" s="5" t="s">
         <v>551</v>
@@ -35733,7 +35736,7 @@
         <v>302</v>
       </c>
       <c r="I398" s="5" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="K398" s="5">
         <v>-31</v>
@@ -35751,10 +35754,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="Q398" s="10" t="s">
-        <v>1437</v>
+        <v>1416</v>
       </c>
       <c r="V398" s="5" t="s">
         <v>551</v>
@@ -35792,10 +35795,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="I399" s="5" t="s">
-        <v>1430</v>
+        <v>1409</v>
       </c>
       <c r="K399" s="5">
         <v>-31</v>
@@ -35813,10 +35816,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="5" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="Q399" s="10" t="s">
-        <v>1436</v>
+        <v>1415</v>
       </c>
       <c r="V399" s="5" t="s">
         <v>551</v>
@@ -35854,10 +35857,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="I400" s="5" t="s">
-        <v>1431</v>
+        <v>1410</v>
       </c>
       <c r="K400" s="5">
         <v>-31</v>
@@ -35875,10 +35878,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="5" t="s">
-        <v>1433</v>
+        <v>1412</v>
       </c>
       <c r="Q400" s="10" t="s">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="V400" s="5" t="s">
         <v>551</v>
@@ -35916,10 +35919,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1442</v>
+        <v>1421</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>1457</v>
+        <v>1436</v>
       </c>
       <c r="K401" s="5">
         <v>-31</v>
@@ -35931,19 +35934,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="O401" s="5">
         <v>1800</v>
       </c>
       <c r="P401" s="5" t="s">
-        <v>1444</v>
+        <v>1423</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1469</v>
+        <v>1448</v>
       </c>
       <c r="V401" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W401" s="5">
         <v>99999999</v>
@@ -35981,10 +35984,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1446</v>
+        <v>1425</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>1458</v>
+        <v>1437</v>
       </c>
       <c r="K402" s="5">
         <v>-31</v>
@@ -35996,19 +35999,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="O402" s="5">
         <v>4800</v>
       </c>
       <c r="P402" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q402" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="Q402" s="5" t="s">
-        <v>1465</v>
-      </c>
       <c r="V402" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W402" s="5">
         <v>99999999</v>
@@ -36046,10 +36049,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="I403" s="5" t="s">
-        <v>1459</v>
+        <v>1438</v>
       </c>
       <c r="K403" s="5">
         <v>-31</v>
@@ -36061,19 +36064,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="O403" s="5">
         <v>9800</v>
       </c>
       <c r="P403" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q403" s="5" t="s">
         <v>1449</v>
       </c>
-      <c r="Q403" s="5" t="s">
-        <v>1470</v>
-      </c>
       <c r="V403" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W403" s="5">
         <v>99999999</v>
@@ -36111,10 +36114,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1450</v>
+        <v>1429</v>
       </c>
       <c r="I404" s="5" t="s">
-        <v>1460</v>
+        <v>1439</v>
       </c>
       <c r="K404" s="5">
         <v>-31</v>
@@ -36126,19 +36129,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="5" t="s">
-        <v>1443</v>
+        <v>1422</v>
       </c>
       <c r="O404" s="5">
         <v>19800</v>
       </c>
       <c r="P404" s="5" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="V404" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W404" s="5">
         <v>99999999</v>
@@ -36176,10 +36179,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1452</v>
+        <v>1431</v>
       </c>
       <c r="I405" s="5" t="s">
-        <v>1461</v>
+        <v>1440</v>
       </c>
       <c r="K405" s="5">
         <v>-31</v>
@@ -36191,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="O405" s="5">
         <v>29800</v>
       </c>
       <c r="P405" s="5" t="s">
-        <v>1451</v>
+        <v>1430</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1471</v>
+        <v>1450</v>
       </c>
       <c r="V405" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W405" s="5">
         <v>99999999</v>
@@ -36241,10 +36244,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1453</v>
+        <v>1432</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>1462</v>
+        <v>1441</v>
       </c>
       <c r="K406" s="5">
         <v>-31</v>
@@ -36256,19 +36259,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="O406" s="5">
         <v>49800</v>
       </c>
       <c r="P406" s="5" t="s">
-        <v>1454</v>
+        <v>1433</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
       <c r="V406" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W406" s="5">
         <v>99999999</v>
@@ -36306,10 +36309,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1455</v>
+        <v>1434</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>1463</v>
+        <v>1442</v>
       </c>
       <c r="K407" s="5">
         <v>-31</v>
@@ -36321,19 +36324,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="5" t="s">
-        <v>1448</v>
+        <v>1427</v>
       </c>
       <c r="O407" s="5">
         <v>99800</v>
       </c>
       <c r="P407" s="5" t="s">
-        <v>1456</v>
+        <v>1435</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1467</v>
+        <v>1446</v>
       </c>
       <c r="V407" s="5" t="s">
-        <v>1445</v>
+        <v>1424</v>
       </c>
       <c r="W407" s="5">
         <v>99999999</v>
@@ -36371,10 +36374,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="5" t="s">
-        <v>1478</v>
+        <v>1457</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36392,13 +36395,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1626</v>
+        <v>1605</v>
       </c>
       <c r="V408" s="5" t="s">
-        <v>1489</v>
+        <v>1468</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -36436,10 +36439,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="5" t="s">
-        <v>1479</v>
+        <v>1458</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1484</v>
+        <v>1463</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -36457,13 +36460,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1624</v>
+        <v>1603</v>
       </c>
       <c r="V409" s="5" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -36501,10 +36504,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="5" t="s">
-        <v>1480</v>
+        <v>1459</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1485</v>
+        <v>1464</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -36522,13 +36525,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q410" s="10" t="s">
-        <v>1438</v>
+        <v>1417</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -36566,10 +36569,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="5" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1486</v>
+        <v>1465</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -36587,13 +36590,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1621</v>
+        <v>1600</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1491</v>
+        <v>1470</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -36631,10 +36634,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="5" t="s">
-        <v>1482</v>
+        <v>1461</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1487</v>
+        <v>1466</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -36652,13 +36655,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1619</v>
+        <v>1598</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1492</v>
+        <v>1471</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -36696,10 +36699,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="5" t="s">
-        <v>1483</v>
+        <v>1462</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36717,13 +36720,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
-        <v>1488</v>
+        <v>1467</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1617</v>
+        <v>1596</v>
       </c>
       <c r="V413" s="5" t="s">
-        <v>1490</v>
+        <v>1469</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -36764,7 +36767,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1497</v>
+        <v>1476</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36785,10 +36788,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1498</v>
+        <v>1477</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1517</v>
+        <v>1496</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36823,13 +36826,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1502</v>
+        <v>1481</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36847,13 +36850,13 @@
         <v>600</v>
       </c>
       <c r="P415" s="5" t="s">
-        <v>1270</v>
+        <v>1249</v>
       </c>
       <c r="Q415" s="48" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36891,13 +36894,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36915,13 +36918,13 @@
         <v>1800</v>
       </c>
       <c r="P416" s="5" t="s">
-        <v>1271</v>
+        <v>1250</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1514</v>
+        <v>1493</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1505</v>
+        <v>1484</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36959,13 +36962,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="H417" s="6" t="s">
-        <v>1503</v>
+        <v>1482</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36983,13 +36986,13 @@
         <v>4800</v>
       </c>
       <c r="P417" s="5" t="s">
-        <v>1272</v>
+        <v>1251</v>
       </c>
       <c r="Q417" s="48" t="s">
-        <v>1263</v>
+        <v>1242</v>
       </c>
       <c r="V417" s="6" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W417" s="14" t="s">
         <v>119</v>
@@ -37027,13 +37030,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1499</v>
+        <v>1478</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -37051,13 +37054,13 @@
         <v>9800</v>
       </c>
       <c r="P418" s="5" t="s">
-        <v>1273</v>
+        <v>1252</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1515</v>
+        <v>1494</v>
       </c>
       <c r="V418" s="6" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W418" s="14" t="s">
         <v>119</v>
@@ -37095,13 +37098,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1500</v>
+        <v>1479</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -37119,13 +37122,13 @@
         <v>19800</v>
       </c>
       <c r="P419" s="5" t="s">
-        <v>1274</v>
+        <v>1253</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="V419" s="6" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W419" s="14" t="s">
         <v>119</v>
@@ -37163,13 +37166,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1501</v>
+        <v>1480</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1504</v>
+        <v>1483</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1510</v>
+        <v>1489</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -37187,13 +37190,13 @@
         <v>49800</v>
       </c>
       <c r="P420" s="5" t="s">
-        <v>1275</v>
+        <v>1254</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1516</v>
+        <v>1495</v>
       </c>
       <c r="V420" s="6" t="s">
-        <v>1279</v>
+        <v>1258</v>
       </c>
       <c r="W420" s="14" t="s">
         <v>119</v>
@@ -37231,10 +37234,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1511</v>
+        <v>1490</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1512</v>
+        <v>1491</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -37252,13 +37255,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1519</v>
+        <v>1498</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1513</v>
+        <v>1492</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1521</v>
+        <v>1500</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -37270,10 +37273,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA421" s="19" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1520</v>
+        <v>1499</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -37299,13 +37302,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -37323,10 +37326,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1591</v>
+        <v>1570</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -37367,13 +37370,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -37391,10 +37394,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -37435,13 +37438,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -37459,10 +37462,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -37503,10 +37506,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1522</v>
+        <v>1501</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1523</v>
+        <v>1502</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -37524,10 +37527,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -37559,10 +37562,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1525</v>
+        <v>1504</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -37580,10 +37583,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -37615,10 +37618,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1526</v>
+        <v>1505</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1527</v>
+        <v>1506</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -37636,10 +37639,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -37671,10 +37674,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1528</v>
+        <v>1507</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1529</v>
+        <v>1508</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -37692,10 +37695,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -37727,10 +37730,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1530</v>
+        <v>1509</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1531</v>
+        <v>1510</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37748,10 +37751,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37783,13 +37786,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37807,13 +37810,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37851,13 +37854,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37875,10 +37878,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37919,13 +37922,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37943,10 +37946,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37987,13 +37990,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -38011,10 +38014,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1674</v>
+        <v>1653</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -38055,13 +38058,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="K434" s="5">
         <v>-31</v>
@@ -38079,10 +38082,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="Q434" s="10" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="V434" s="5" t="s">
         <v>551</v>
@@ -38120,13 +38123,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="5" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I435" s="5" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="K435" s="5">
         <v>-31</v>
@@ -38144,10 +38147,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="Q435" s="10" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="V435" s="5" t="s">
         <v>551</v>
@@ -38185,13 +38188,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H436" s="5" t="s">
         <v>1559</v>
       </c>
-      <c r="H436" s="5" t="s">
-        <v>1580</v>
-      </c>
       <c r="I436" s="5" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="K436" s="5">
         <v>-31</v>
@@ -38209,10 +38212,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="5" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="V436" s="5" t="s">
         <v>551</v>
@@ -38250,13 +38253,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="5" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I437" s="5" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="K437" s="5">
         <v>-31</v>
@@ -38274,10 +38277,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="5" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="Q437" s="10" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="V437" s="5" t="s">
         <v>551</v>
@@ -38315,13 +38318,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="5" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="K438" s="5">
         <v>-31</v>
@@ -38339,10 +38342,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="5" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="Q438" s="10" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="V438" s="5" t="s">
         <v>551</v>
@@ -38380,13 +38383,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="5" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="K439" s="5">
         <v>-31</v>
@@ -38404,10 +38407,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="V439" s="5" t="s">
         <v>551</v>
@@ -38445,13 +38448,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="5" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="I440" s="5" t="s">
-        <v>1572</v>
+        <v>1551</v>
       </c>
       <c r="K440" s="5">
         <v>-31</v>
@@ -38463,19 +38466,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1615</v>
+        <v>1594</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="Q440" s="10" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1695</v>
+        <v>1674</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38510,10 +38513,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1609</v>
+        <v>1588</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38531,13 +38534,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1618</v>
+        <v>1597</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38572,10 +38575,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1610</v>
+        <v>1589</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38593,13 +38596,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q442" s="10" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="V442" s="5" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38634,10 +38637,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1611</v>
+        <v>1590</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38655,13 +38658,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1622</v>
+        <v>1601</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38696,10 +38699,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1612</v>
+        <v>1591</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38717,13 +38720,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1630</v>
+        <v>1609</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38758,10 +38761,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1613</v>
+        <v>1592</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38779,13 +38782,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="V445" s="5" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38820,10 +38823,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1614</v>
+        <v>1593</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38841,13 +38844,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1616</v>
+        <v>1595</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1627</v>
+        <v>1606</v>
       </c>
       <c r="V446" s="5" t="s">
-        <v>1628</v>
+        <v>1607</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38882,13 +38885,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1638</v>
+        <v>1617</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1671</v>
+        <v>1650</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1716</v>
+        <v>1695</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38906,10 +38909,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1717</v>
+        <v>1696</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38950,13 +38953,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1639</v>
+        <v>1618</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1672</v>
+        <v>1651</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1696</v>
+        <v>1675</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38974,10 +38977,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1718</v>
+        <v>1697</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -39015,13 +39018,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1640</v>
+        <v>1619</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1673</v>
+        <v>1652</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1697</v>
+        <v>1676</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -39039,10 +39042,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1719</v>
+        <v>1698</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -39083,13 +39086,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="64" t="s">
-        <v>1641</v>
+        <v>1620</v>
       </c>
       <c r="H450" s="64" t="s">
-        <v>1653</v>
+        <v>1632</v>
       </c>
       <c r="I450" s="64" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="K450" s="64">
         <v>-31</v>
@@ -39107,10 +39110,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q450" s="65" t="s">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39151,13 +39154,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="64" t="s">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="H451" s="64" t="s">
-        <v>1654</v>
+        <v>1633</v>
       </c>
       <c r="I451" s="64" t="s">
-        <v>1699</v>
+        <v>1678</v>
       </c>
       <c r="K451" s="64">
         <v>-31</v>
@@ -39175,10 +39178,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q451" s="65" t="s">
-        <v>1721</v>
+        <v>1700</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39216,13 +39219,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="64" t="s">
-        <v>1643</v>
+        <v>1622</v>
       </c>
       <c r="H452" s="64" t="s">
-        <v>1655</v>
+        <v>1634</v>
       </c>
       <c r="I452" s="64" t="s">
-        <v>1700</v>
+        <v>1679</v>
       </c>
       <c r="K452" s="64">
         <v>-31</v>
@@ -39240,10 +39243,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q452" s="65" t="s">
-        <v>1722</v>
+        <v>1701</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39284,13 +39287,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1631</v>
+        <v>1610</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1656</v>
+        <v>1635</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1701</v>
+        <v>1680</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39308,10 +39311,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1723</v>
+        <v>1702</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39352,13 +39355,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1632</v>
+        <v>1611</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1657</v>
+        <v>1636</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39376,10 +39379,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1724</v>
+        <v>1703</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39417,13 +39420,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1633</v>
+        <v>1612</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1658</v>
+        <v>1637</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39441,10 +39444,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1725</v>
+        <v>1704</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39485,13 +39488,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="64" t="s">
-        <v>1634</v>
+        <v>1613</v>
       </c>
       <c r="H456" s="64" t="s">
-        <v>1659</v>
+        <v>1638</v>
       </c>
       <c r="I456" s="64" t="s">
-        <v>1704</v>
+        <v>1683</v>
       </c>
       <c r="K456" s="64">
         <v>-31</v>
@@ -39509,10 +39512,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q456" s="65" t="s">
-        <v>1726</v>
+        <v>1705</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39553,13 +39556,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="64" t="s">
-        <v>1635</v>
+        <v>1614</v>
       </c>
       <c r="H457" s="64" t="s">
-        <v>1660</v>
+        <v>1639</v>
       </c>
       <c r="I457" s="64" t="s">
-        <v>1705</v>
+        <v>1684</v>
       </c>
       <c r="K457" s="64">
         <v>-31</v>
@@ -39577,10 +39580,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q457" s="65" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39618,13 +39621,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="64" t="s">
-        <v>1636</v>
+        <v>1615</v>
       </c>
       <c r="H458" s="64" t="s">
-        <v>1661</v>
+        <v>1640</v>
       </c>
       <c r="I458" s="64" t="s">
-        <v>1706</v>
+        <v>1685</v>
       </c>
       <c r="K458" s="64">
         <v>-31</v>
@@ -39642,10 +39645,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q458" s="65" t="s">
-        <v>1728</v>
+        <v>1707</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39686,13 +39689,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1644</v>
+        <v>1623</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1662</v>
+        <v>1641</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1707</v>
+        <v>1686</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39710,10 +39713,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1729</v>
+        <v>1708</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39754,13 +39757,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1645</v>
+        <v>1624</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1708</v>
+        <v>1687</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39778,10 +39781,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39819,13 +39822,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1646</v>
+        <v>1625</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1664</v>
+        <v>1643</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1709</v>
+        <v>1688</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39843,10 +39846,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1731</v>
+        <v>1710</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39887,13 +39890,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="64" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="H462" s="64" t="s">
-        <v>1665</v>
+        <v>1644</v>
       </c>
       <c r="I462" s="64" t="s">
-        <v>1710</v>
+        <v>1689</v>
       </c>
       <c r="K462" s="64">
         <v>-31</v>
@@ -39911,10 +39914,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q462" s="65" t="s">
-        <v>1732</v>
+        <v>1711</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39955,13 +39958,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="64" t="s">
-        <v>1648</v>
+        <v>1627</v>
       </c>
       <c r="H463" s="64" t="s">
-        <v>1666</v>
+        <v>1645</v>
       </c>
       <c r="I463" s="64" t="s">
-        <v>1711</v>
+        <v>1690</v>
       </c>
       <c r="K463" s="64">
         <v>-31</v>
@@ -39979,13 +39982,13 @@
         <v>99800</v>
       </c>
       <c r="P463" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q463" s="65" t="s">
-        <v>1733</v>
+        <v>1712</v>
       </c>
       <c r="V463" s="5" t="s">
-        <v>1781</v>
+        <v>1760</v>
       </c>
       <c r="W463" s="64">
         <v>9999999</v>
@@ -40020,13 +40023,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="64" t="s">
-        <v>1649</v>
+        <v>1628</v>
       </c>
       <c r="H464" s="64" t="s">
-        <v>1667</v>
+        <v>1646</v>
       </c>
       <c r="I464" s="64" t="s">
-        <v>1712</v>
+        <v>1691</v>
       </c>
       <c r="K464" s="64">
         <v>-31</v>
@@ -40044,10 +40047,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="64" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q464" s="65" t="s">
-        <v>1734</v>
+        <v>1713</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -40088,13 +40091,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1650</v>
+        <v>1629</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1668</v>
+        <v>1647</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1713</v>
+        <v>1692</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40112,10 +40115,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1735</v>
+        <v>1714</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40156,13 +40159,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1651</v>
+        <v>1630</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1669</v>
+        <v>1648</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1714</v>
+        <v>1693</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40180,10 +40183,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1675</v>
+        <v>1654</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1736</v>
+        <v>1715</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40221,13 +40224,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1652</v>
+        <v>1631</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1670</v>
+        <v>1649</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1715</v>
+        <v>1694</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40245,10 +40248,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1693</v>
+        <v>1672</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1737</v>
+        <v>1716</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40289,13 +40292,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="58" t="s">
-        <v>1676</v>
+        <v>1655</v>
       </c>
       <c r="H468" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I468" s="58" t="s">
-        <v>1686</v>
+        <v>1665</v>
       </c>
       <c r="K468" s="58">
         <v>-31</v>
@@ -40313,13 +40316,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q468" s="59" t="s">
-        <v>1738</v>
+        <v>1717</v>
       </c>
       <c r="V468" s="58" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="W468" s="58">
         <v>9999999</v>
@@ -40354,13 +40357,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="58" t="s">
-        <v>1677</v>
+        <v>1656</v>
       </c>
       <c r="H469" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I469" s="58" t="s">
-        <v>1687</v>
+        <v>1666</v>
       </c>
       <c r="K469" s="58">
         <v>-31</v>
@@ -40378,13 +40381,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q469" s="59" t="s">
-        <v>1739</v>
+        <v>1718</v>
       </c>
       <c r="V469" s="58" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="W469" s="58">
         <v>9999999</v>
@@ -40419,13 +40422,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="58" t="s">
-        <v>1678</v>
+        <v>1657</v>
       </c>
       <c r="H470" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I470" s="58" t="s">
-        <v>1688</v>
+        <v>1667</v>
       </c>
       <c r="K470" s="58">
         <v>-31</v>
@@ -40443,13 +40446,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q470" s="59" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="58" t="s">
-        <v>1758</v>
+        <v>1737</v>
       </c>
       <c r="W470" s="58">
         <v>9999999</v>
@@ -40484,13 +40487,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="58" t="s">
-        <v>1679</v>
+        <v>1658</v>
       </c>
       <c r="H471" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I471" s="58" t="s">
-        <v>1689</v>
+        <v>1668</v>
       </c>
       <c r="K471" s="58">
         <v>-31</v>
@@ -40508,13 +40511,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q471" s="59" t="s">
-        <v>1740</v>
+        <v>1719</v>
       </c>
       <c r="V471" s="58" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="W471" s="58">
         <v>9999999</v>
@@ -40549,13 +40552,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="58" t="s">
-        <v>1680</v>
+        <v>1659</v>
       </c>
       <c r="H472" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I472" s="58" t="s">
-        <v>1690</v>
+        <v>1669</v>
       </c>
       <c r="K472" s="58">
         <v>-31</v>
@@ -40573,13 +40576,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q472" s="59" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="58" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="W472" s="58">
         <v>9999999</v>
@@ -40614,13 +40617,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="58" t="s">
-        <v>1681</v>
+        <v>1660</v>
       </c>
       <c r="H473" s="58" t="s">
-        <v>1684</v>
+        <v>1663</v>
       </c>
       <c r="I473" s="58" t="s">
-        <v>1691</v>
+        <v>1670</v>
       </c>
       <c r="K473" s="58">
         <v>-31</v>
@@ -40638,13 +40641,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="58" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q473" s="59" t="s">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="V473" s="58" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="W473" s="58">
         <v>9999999</v>
@@ -40679,13 +40682,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="68" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="H474" s="68" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I474" s="68" t="s">
-        <v>1692</v>
+        <v>1671</v>
       </c>
       <c r="K474" s="68">
         <v>-31</v>
@@ -40703,13 +40706,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="68" t="s">
-        <v>1694</v>
+        <v>1673</v>
       </c>
       <c r="Q474" s="69" t="s">
-        <v>1742</v>
+        <v>1721</v>
       </c>
       <c r="V474" s="68" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="W474" s="68">
         <v>9999999</v>
@@ -40744,13 +40747,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="68" t="s">
-        <v>1683</v>
+        <v>1662</v>
       </c>
       <c r="H475" s="68" t="s">
-        <v>1685</v>
+        <v>1664</v>
       </c>
       <c r="I475" s="68" t="s">
-        <v>1784</v>
+        <v>1763</v>
       </c>
       <c r="K475" s="68">
         <v>-31</v>
@@ -40762,19 +40765,19 @@
         <v>0</v>
       </c>
       <c r="N475" s="68" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="O475" s="68">
         <v>249800</v>
       </c>
       <c r="P475" s="68" t="s">
-        <v>1770</v>
+        <v>1749</v>
       </c>
       <c r="Q475" s="69" t="s">
-        <v>1785</v>
+        <v>1764</v>
       </c>
       <c r="V475" s="68" t="s">
-        <v>1757</v>
+        <v>1736</v>
       </c>
       <c r="W475" s="68">
         <v>9999999</v>
@@ -40809,13 +40812,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="70" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="H476" s="70" t="s">
-        <v>1763</v>
+        <v>1742</v>
       </c>
       <c r="I476" s="70" t="s">
-        <v>1767</v>
+        <v>1746</v>
       </c>
       <c r="K476" s="70">
         <v>-31</v>
@@ -40827,19 +40830,19 @@
         <v>0</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="O476" s="70">
         <v>49800</v>
       </c>
       <c r="P476" s="70" t="s">
-        <v>1772</v>
+        <v>1751</v>
       </c>
       <c r="Q476" s="71" t="s">
-        <v>1776</v>
+        <v>1755</v>
       </c>
       <c r="V476" s="70" t="s">
-        <v>1780</v>
+        <v>1759</v>
       </c>
       <c r="W476" s="70">
         <v>9999999</v>
@@ -40874,13 +40877,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="70" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="H477" s="70" t="s">
-        <v>1764</v>
+        <v>1743</v>
       </c>
       <c r="I477" s="70" t="s">
-        <v>1768</v>
+        <v>1747</v>
       </c>
       <c r="K477" s="70">
         <v>-31</v>
@@ -40892,19 +40895,19 @@
         <v>0</v>
       </c>
       <c r="N477" s="70" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="O477" s="70">
         <v>19800</v>
       </c>
       <c r="P477" s="70" t="s">
-        <v>1772</v>
+        <v>1751</v>
       </c>
       <c r="Q477" s="71" t="s">
-        <v>1777</v>
+        <v>1756</v>
       </c>
       <c r="V477" s="70" t="s">
-        <v>1780</v>
+        <v>1759</v>
       </c>
       <c r="W477" s="70">
         <v>9999999</v>
@@ -40939,13 +40942,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="70" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="H478" s="70" t="s">
-        <v>1765</v>
+        <v>1744</v>
       </c>
       <c r="I478" s="70" t="s">
-        <v>1774</v>
+        <v>1753</v>
       </c>
       <c r="K478" s="70">
         <v>-31</v>
@@ -40957,16 +40960,16 @@
         <v>0</v>
       </c>
       <c r="N478" s="70" t="s">
-        <v>1769</v>
+        <v>1748</v>
       </c>
       <c r="O478" s="70">
         <v>9800</v>
       </c>
       <c r="P478" s="70" t="s">
-        <v>1773</v>
+        <v>1752</v>
       </c>
       <c r="Q478" s="71" t="s">
-        <v>1778</v>
+        <v>1757</v>
       </c>
       <c r="V478" s="70" t="s">
         <v>551</v>
@@ -41004,13 +41007,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="70" t="s">
-        <v>1762</v>
+        <v>1741</v>
       </c>
       <c r="H479" s="70" t="s">
-        <v>1766</v>
+        <v>1745</v>
       </c>
       <c r="I479" s="70" t="s">
-        <v>1775</v>
+        <v>1754</v>
       </c>
       <c r="K479" s="70">
         <v>-31</v>
@@ -41028,13 +41031,13 @@
         <v>4800</v>
       </c>
       <c r="P479" s="70" t="s">
-        <v>1782</v>
+        <v>1761</v>
       </c>
       <c r="Q479" s="71" t="s">
-        <v>1779</v>
+        <v>1758</v>
       </c>
       <c r="V479" s="70" t="s">
-        <v>1783</v>
+        <v>1762</v>
       </c>
       <c r="W479" s="70">
         <v>9999999</v>
@@ -41097,7 +41100,7 @@
         <v>400</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>401</v>
@@ -41114,7 +41117,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1190</v>
+        <v>1170</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -41131,7 +41134,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1191</v>
+        <v>1171</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -41145,7 +41148,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -41159,7 +41162,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1193</v>
+        <v>1173</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -41313,7 +41316,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1194</v>
+        <v>1174</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -41467,7 +41470,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1258</v>
+        <v>1237</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -41482,7 +41485,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1250</v>
+        <v>1229</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -41497,7 +41500,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1637</v>
+        <v>1616</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41512,7 +41515,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1259</v>
+        <v>1238</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -41527,7 +41530,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1251</v>
+        <v>1230</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -41542,7 +41545,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1252</v>
+        <v>1231</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -41557,7 +41560,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1260</v>
+        <v>1239</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -41572,7 +41575,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1253</v>
+        <v>1232</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -41587,7 +41590,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1254</v>
+        <v>1233</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -41602,7 +41605,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -41617,7 +41620,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1255</v>
+        <v>1234</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -41632,7 +41635,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -41647,7 +41650,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1269</v>
+        <v>1248</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -41661,7 +41664,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1267</v>
+        <v>1246</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -41675,7 +41678,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1268</v>
+        <v>1247</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -41689,7 +41692,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1326</v>
+        <v>1305</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -41703,7 +41706,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1381</v>
+        <v>1360</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -41717,7 +41720,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1382</v>
+        <v>1361</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -41731,7 +41734,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>1759</v>
+        <v>1738</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41745,7 +41748,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41759,7 +41762,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>1761</v>
+        <v>1740</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41773,7 +41776,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1468</v>
+        <v>1447</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
@@ -41787,7 +41790,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1506</v>
+        <v>1485</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -41801,7 +41804,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1507</v>
+        <v>1486</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -41815,7 +41818,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1508</v>
+        <v>1487</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -41829,7 +41832,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1518</v>
+        <v>1497</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
@@ -41843,7 +41846,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1750</v>
+        <v>1729</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41857,7 +41860,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1744</v>
+        <v>1723</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41871,7 +41874,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1751</v>
+        <v>1730</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41885,7 +41888,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1743</v>
+        <v>1722</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41899,7 +41902,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1752</v>
+        <v>1731</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41913,7 +41916,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1749</v>
+        <v>1728</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41927,7 +41930,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1753</v>
+        <v>1732</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41941,7 +41944,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41955,7 +41958,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1754</v>
+        <v>1733</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41969,7 +41972,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1746</v>
+        <v>1725</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41983,7 +41986,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1755</v>
+        <v>1734</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41997,7 +42000,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1747</v>
+        <v>1726</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -42011,7 +42014,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -42025,7 +42028,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1748</v>
+        <v>1727</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>
@@ -42090,7 +42093,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1353</v>
+        <v>1332</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>412</v>
@@ -43683,7 +43686,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -44369,7 +44372,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>486</v>
@@ -44416,7 +44419,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>486</v>
@@ -44463,7 +44466,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>490</v>
